--- a/pcor_tools/tests/test_resources/key-datasets-sample.xlsx
+++ b/pcor_tools/tests/test_resources/key-datasets-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28005"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih.sharepoint.com/sites/NIH-PCOR-Geospatial-Data-and-Health/Shared Documents/General/Data Analysis/Key_Datasets_Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3448" documentId="8_{B9F26137-CE37-4936-A785-9D85831516A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE7B63D9-6B4F-4B2A-851A-04A03DC28503}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{636A6E03-8D4F-4EBE-A4BD-5909CEBF9328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1060" yWindow="210" windowWidth="11620" windowHeight="7650" firstSheet="1" activeTab="5" xr2:uid="{637B4EA7-186F-8E46-863B-6788CC042C6C}"/>
+    <workbookView minimized="1" xWindow="1060" yWindow="210" windowWidth="11620" windowHeight="7650" firstSheet="1" activeTab="1" xr2:uid="{637B4EA7-186F-8E46-863B-6788CC042C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="11" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="1428">
   <si>
     <t>About this file:</t>
   </si>
@@ -734,7 +734,7 @@
     <t>https://www.caces.us/data</t>
   </si>
   <si>
-    <t>Kim S.-Y.; Bechle, M.; Hankey, S.; Sheppard, L.; Szpiro, A. A.; Marshall, J. D. (2020). Concentrations of criteria pollutants in the contiguous U.S., 1979 – 2015: Role of prediction model parsimony in integrated empirical geographic regression. PLoS ONE 15(2), e0228535. DOI: 10.1371/journal.pone.0228535</t>
+    <t>Kim S.-Y., Bechle, M., Hankey, S., Sheppard, L., Szpiro, A. A., Marshall, J. D. (2020). Concentrations of criteria pollutants in the contiguous U.S., 1979 – 2015: Role of prediction model parsimony in integrated empirical geographic regression. PLoS ONE 15(2), e0228535. DOI: 10.1371/journal.pone.0228535</t>
   </si>
   <si>
     <t>https://doi.org/10.1371/journal.pone.0228535</t>
@@ -1049,7 +1049,7 @@
     <t>Environmental Protection Agency (EPA)</t>
   </si>
   <si>
-    <t>The Toxic Release Inventory (TRI) provides annual estimated toxic releases (i.e., pollutant emissions to air, water, and land) for specific pollutants that are required by regulations to be reported to EPA by federal and industrial facilities. This includes industries involved in manufacturing, metal mining, electric power generation, chemical manufacturing, or hazardous waste treatment. The inventory includes chemicals that may cause cancer, significant adverse acute or chronic human health effects, or significant adverse environmental effects. The TRI provides annual emissions data during 1987-2022 for point locations (geographic coordinates) of polluting facilities in the United States and United States Territories. The TRI provides the point locations (geographic coordinates) of polluting facilities and their facility-reported annual estimated emissions mass by pollutant (e.g., benzene, ethylbenzene, xylene, toluene, and more than 700 other pollutants) and release type (e.g., air, water, land).</t>
+    <t>The Toxic Release Inventory (TRI) provides annual estimated toxic releases (i.e., pollutant emissions to air, water, and land) for specific pollutants that are required by regulations to be reported to EPA by federal and industrial facilities. This includes industries involved in manufacturing, metal mining, electric power generation, chemical manufacturing, or hazardous waste treatment. The inventory includes chemicals that may cause cancer, significant adverse acute or chronic human health effects, or significant adverse environmental effects. The TRI covers the United States and United States Territories during 1987-2022. The TRI provides the point locations (geographic coordinates) of polluting industrial facilities and their facility-reported annual estimated emissions mass by pollutant (e.g., benzene, ethylbenzene, xylene, toluene, and more than 700 other pollutants) and release type (e.g., air, water, land).</t>
   </si>
   <si>
     <t xml:space="preserve">The Toxic Release Inventory (TRI) reports annual estimated toxic releases (i.e., pollutant emissions to air, water, and land) for specific pollutants that are required by regulations to be reported to EPA by federal and industrial facilities in the United States that generate quantities of pollutants that exceed applicable threshold values. This includes industries involved in manufacturing, metal mining, electric power generation, chemical manufacturing, or hazardous waste treatment. The inventory includes chemicals that may cause cancer, significant adverse acute or chronic human health effects, or significant adverse environmental effects. </t>
@@ -1135,7 +1135,7 @@
     <t>Centers for Disease Control and Prevention (CDC)</t>
   </si>
   <si>
-    <t>The CDC/ATSDR Social Vulnerability Index (SVI) was developed for use evaluating and mitigating social vulnerability within the context of disaster preparedness and response. CDC/ATSDR SVI is a ranked composite index derived from 16 Census variables from the 5-year American Community Survey selected to represent the following 4 themes: socioeconomic status, household characteristics, racial and ethnic minority status, and housing type and transportation. The CDC/ATSDR SVI is available for counties and Census tracts in the United States and Puerto Rico during years 2000, 2010, 2014, 2016, 2018, and 2020.</t>
+    <t>The CDC/ATSDR Social Vulnerability Index (SVI) was developed for use evaluating and mitigating social vulnerability within the context of disaster preparedness and response. The CDC/ATSDR SVI is a ranked composite index derived from 16 Census variables from the 5-year American Community Survey (ACS) selected to represent the following four themes: socioeconomic status, household characteristics, racial and ethnic minority status, and housing type and transportation. The CDC/ATSDR SVI is available for counties and Census tracts in the United States and Puerto Rico during years 2000, 2010, 2014, 2016, 2018, and 2020.</t>
   </si>
   <si>
     <t>The study by Flanagan et al. (2011) introduces a Social Vulnerability Index tailored for disaster management applications. This index functions as a crucial instrument for evaluating and mitigating social vulnerability within the realm of disaster preparedness and response. By considering a range of factors encompassing medicine and economics, this index assists in pinpointing populations that might face heightened susceptibility to adverse consequences during disasters. The adoption of such an index has the potential to significantly bolster the efficacy of emergency management strategies by directing resources and interventions towards the most vulnerable communities.</t>
@@ -1234,7 +1234,7 @@
     <t>Environmental Protection Agency (EPA), National Aeronautics and Space Administration (NASA) </t>
   </si>
   <si>
-    <t xml:space="preserve">The Daily and Annual PM2.5 Concentrations for the Contiguous United States, 1-km Grids, Version 1.10 (2000-2016) dataset presents fine particulate matter (PM2.5) air pollution concentration predictions. PM2.5 concentrations are predicted using an ensemble model approach and daily predictions from three machine learning models (neural network, random forest, and gradient boosting) developed using satellite data, meteorological variables, land use variables, elevation, chemical transport model predictions, and other data sources. This dataset provides daily and annual PM2.5 concentration predictions during 2000 to 2016 for the contiguous United States with 1 km spatial resolution. </t>
+    <t xml:space="preserve">The Daily and Annual PM2.5 Concentrations for the Contiguous United States, 1-km Grids, Version 1.10 (2000-2016) dataset contains fine particulate matter (PM2.5) air pollution concentration estimates. PM2.5 concentrations are estimated using an ensemble modeling approach with three machine learning models (neural network, random forest, and gradient boosting) and a general additive model. The approach incorporates satellite data, meteorological variables, land use variables, elevation, two chemical transport models (GEOS-Chem and CMAQ), and other data sources. This dataset provides daily and annual average PM2.5 concentration estimates during 2000 to 2016 for the contiguous United States with 1 km spatial resolution. </t>
   </si>
   <si>
     <t>The Daily and Annual PM2.5 Concentrations for the Contiguous United States, 1-km Grids, Version 1.10 (2000-2016) dataset presents PM2.5 concentration predictions for 2000-2016 in grid cells at 1-km resolution. An additive model approach and daily predictions from three machine learning models: neural network, random forest, and gradient boosting, were used to accounted for geographic difference. The three models use multiple predictors that include satellite data, meteorological variables, land-use variables, elevation, and chemical transport model predictions, among others. Annual predictions represent the average daily predictions in each grid cell for each year. </t>
@@ -1324,6 +1324,22 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Machine Learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>, Air Pollution, PM2.5, Concentration, Annual Average, Daily Average, Machine Learning, CONUS</t>
     </r>
   </si>
@@ -1379,6 +1395,9 @@
     <t>NASA- Air Quality Daily and Annual NO2 Concentrations</t>
   </si>
   <si>
+    <t xml:space="preserve">The Daily and Annual NO2 Concentrations for the Contiguous United States, 1-km Grids, Version 1.10 (2000-2016) dataset contains nitrogen dioxide (NO2) air pollution concentration estimates. NO2 concentrations are estimated using an ensemble modeling approach with three machine learning models (neural network, random forest, and gradient boosting) and a generalized additive model. The approach incorporates satellite-based observations of NO2 column concentrations, land use and meteorological variables, two chemical transport models (GEOS-Chem and CMAQ), and other data sources. This dataset provides daily and annual average NO2 concentration estimates during 2000 to 2016 for the contiguous United States with 1 km spatial resolution. </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Daily and Annual NO2 Concentrations for the Contiguous United States, 1-km Grids, Version 1.10 (2000-2016) dataset contains estimated daily nitrogen dioxide (NO2) concentrations in grid cells at 1-km resolution for 2000-2016. Estimates were assessed using an ensemble modeling framework that included three machine learning models (neural network, random forest, and gradient boosting), along with a generalized additive model. Data variables included satellite NO2 column concentrations, land-use and meteorological variables, and two chemical transport models, among others. Annual predictions represent the average daily predictions in each grid cell for each year. </t>
   </si>
   <si>
@@ -1391,7 +1410,46 @@
     <t>Modeled daily average nitrogen dioxide (NO2) concentration, from an ensemble-based statistical model incorporating data from ground-based regulatory monitor observations, satellite-based observations, chemical transport models, and land use information.</t>
   </si>
   <si>
-    <t>Modeled Data, Ensemble-based, Air Pollution, NO2, Concentration Prediction, Chemical Transport Model, Annual Average, Daily Average, Machine Learning, CONUS</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Modeled Data, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Ensemble Model, Generalized Additive Model, Chemical Transport Model, Remote Sensing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Machine Learning,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Air Pollution, NO2, Concentration Prediction, Annual Average, Daily Average, CONUS</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Daily and annual average nitrogen dioxide (NO2) air pollution concentration predictions </t>
@@ -1424,6 +1482,9 @@
     <t>NASA- Air Quality Daily 8-Hour Maximum and Annual O3 Concentrations</t>
   </si>
   <si>
+    <t xml:space="preserve">The Daily 8-Hour Maximum and Annual O3 Concentrations for the Contiguous United States, 1-km Grids, Version 1.10 (2000-2016) dataset contains estimated ozone (O3) air pollution concentration estimates. Numerous variables were factored into the prediction, such as O3 ground measurements from the EPA Air Quality System monitors, land-use and meteorological variables, chemical transport models, and remote sensing data, along with other sources. Machine learning algorithms were used to fill data gaps incorporating a geographically-weighted ensemble model to estimate concentrations. Three types of machine learning  models (neural network, random forest, and gradient boosting) were used. This dataset provides daily 8-hour maximum average and annual 8-hour maximum average O3 concentration estimates during 2000 to 2016 for the contiguous United States with 1 km spatial resolution. </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Daily 8-Hour Maximum and Annual O3 Concentrations for the Contiguous United States, 1-km Grids, Version 1.10 (2000-2016) dataset contains estimated daily ozone (O3) concentrations in grid cells at 1-km resolution for 2000-2016. Numerous variables were factored into the prediction, such as O3 ground measurements from the EPA Air Quality System monitors, land-use and meteorological variables, chemical transport models, and remote sensing data, along with other sources. Machine learning algorithms were used to fill data gaps incorporating a geographically-weighted ensemble model to estimate concentrations. Three types of machine learning  models (neural network, random forest, and gradient boosting) were used. Annual predictions represent the average daily predictions in each grid cell for each year. Annual predictions represent the average daily predictions in each grid cell for each year. Annual predictions represent the average daily predictions in each grid cell for each year. </t>
   </si>
   <si>
@@ -1433,7 +1494,22 @@
     <t>Modeled daily 8-hour maximum average ozone (O3) concentration, from an ensemble-based statistical model incorporating data from ground-based regulatory monitor observations, satellite-based observations, chemical transport models, and land use information.</t>
   </si>
   <si>
-    <t>Ensemble-based Model, Air Pollution, Ozone, Concentration Prediction, Chemical Transport Model, Annual Average, Daily 8-hour Maximum Average, Machine Learning, Multiple Sources, CONUS</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Ensemble Model, Generalized Additive Model, Chemical Transport Model, Remote Sensing, Machine Learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>, Air Pollution, Ozone, Concentration Prediction, Annual Average, Daily 8-hour Maximum Average, CONUS</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Daily 8-hour maximum and annual average ozone (O3) air pollution concentration predictions </t>
@@ -4877,6 +4953,9 @@
   </si>
   <si>
     <t>How are project sponsors reflected for datasets from a single researcher or group of researchers-- see the Brokamp air pollution model as an example or the Schartz group air pollution models-- can someone find all the models from the Schwartz group (Di et al.; Requia et al., etc.).</t>
+  </si>
+  <si>
+    <t>Should we include keyword for methods that are inputs to the modeling approach? For example, if a model uses another chemical transport model as an input, but is not a chemical transport model itself, should we list the "chemical transport model" keyword? We currently include inputs-- e.g., "remote sensing" for a model based on remote sensing data.</t>
   </si>
   <si>
     <t>Suggested change</t>
@@ -6011,7 +6090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6354,6 +6433,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6399,12 +6487,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6755,67 +6837,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
+      <c r="B2" s="139"/>
     </row>
     <row r="3" spans="1:6" ht="69.95" customHeight="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="135"/>
+      <c r="B3" s="140"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="134"/>
+      <c r="B5" s="139"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="134"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="129"/>
+      <c r="B7" s="134"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="129"/>
+      <c r="B8" s="134"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="129"/>
+      <c r="B9" s="134"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="129"/>
+      <c r="B10" s="134"/>
     </row>
     <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="136"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="133"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="29" t="s">
         <v>10</v>
       </c>
@@ -7141,9 +7223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF07E5A-A186-964E-AFB2-B34FC0BB85B8}">
   <dimension ref="A1:AS70"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="X11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="I12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" customHeight="1"/>
@@ -7182,41 +7264,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15.95" customHeight="1">
-      <c r="J1" s="136" t="s">
+      <c r="J1" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="138" t="s">
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="139"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="141" t="s">
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="144"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="141"/>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="141"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="146"/>
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="146"/>
+      <c r="AL1" s="146"/>
       <c r="AM1" s="66" t="s">
         <v>67</v>
       </c>
@@ -8180,7 +8262,7 @@
         <v>276</v>
       </c>
       <c r="F11" s="34"/>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="128" t="s">
         <v>277</v>
       </c>
       <c r="H11" s="35" t="s">
@@ -8198,7 +8280,7 @@
       <c r="L11" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="131" t="s">
         <v>283</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -8395,7 +8477,7 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
     </row>
-    <row r="13" spans="1:45" s="85" customFormat="1" ht="321.75">
+    <row r="13" spans="1:45" s="85" customFormat="1" ht="387.75" customHeight="1">
       <c r="A13" s="120" t="s">
         <v>110</v>
       </c>
@@ -8411,42 +8493,44 @@
       <c r="E13" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="G13" s="35"/>
+      <c r="G13" s="102" t="s">
+        <v>328</v>
+      </c>
       <c r="H13" s="46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I13" s="104" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M13" s="99" t="s">
         <v>332</v>
       </c>
+      <c r="M13" s="32" t="s">
+        <v>333</v>
+      </c>
       <c r="N13" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>312</v>
       </c>
       <c r="Q13" s="86" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R13" s="45" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S13" s="86" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>174</v>
@@ -8487,10 +8571,10 @@
         <v>321</v>
       </c>
       <c r="AH13" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AJ13" s="9" t="s">
         <v>324</v>
@@ -8512,53 +8596,55 @@
         <v>110</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="G14" s="35"/>
+      <c r="G14" s="100" t="s">
+        <v>344</v>
+      </c>
       <c r="H14" s="42" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I14" s="104" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="M14" s="99" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>348</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="Q14" s="88" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="R14" s="89" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="S14" s="86" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>174</v>
@@ -8579,7 +8665,7 @@
         <v>318</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AA14" s="11">
         <v>2000</v>
@@ -8595,16 +8681,16 @@
         <v>133</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AG14" s="100" t="s">
         <v>321</v>
       </c>
       <c r="AH14" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AJ14" s="9" t="s">
         <v>324</v>
@@ -8626,53 +8712,53 @@
         <v>110</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D15" s="116" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>232</v>
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="46" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I15" s="104" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M15" s="99" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="R15" s="89" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="S15" s="86" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>174</v>
@@ -8681,17 +8767,17 @@
         <v>175</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="1" t="s">
         <v>318</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AA15" s="11">
         <v>2000</v>
@@ -8707,19 +8793,19 @@
         <v>133</v>
       </c>
       <c r="AF15" s="13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AG15" s="100" t="s">
         <v>321</v>
       </c>
       <c r="AH15" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AK15" s="9"/>
       <c r="AL15" s="8"/>
@@ -8738,56 +8824,56 @@
         <v>110</v>
       </c>
       <c r="B16" s="116" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C16" s="116" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D16" s="116" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E16" s="116" t="s">
         <v>114</v>
       </c>
       <c r="F16" s="116" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G16" s="40"/>
       <c r="H16" s="42" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I16" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>119</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M16" s="99" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="90" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="R16" s="45" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="S16" s="88" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>151</v>
@@ -8803,10 +8889,10 @@
       </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AA16" s="11">
         <v>2022</v>
@@ -8815,30 +8901,30 @@
         <v>2024</v>
       </c>
       <c r="AC16" s="11" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AD16" s="11" t="s">
         <v>245</v>
       </c>
       <c r="AE16" s="11"/>
       <c r="AF16" s="13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AH16" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AK16" s="9"/>
       <c r="AL16" s="8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AM16" s="6">
         <v>45301</v>
@@ -8855,13 +8941,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D17" s="116" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E17" s="117" t="s">
         <v>255</v>
@@ -8869,40 +8955,40 @@
       <c r="F17" s="34"/>
       <c r="G17" s="40"/>
       <c r="H17" s="35" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I17" s="110" t="s">
+        <v>403</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M17" s="99" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>170</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="R17" s="45" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S17" s="88" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>203</v>
@@ -8918,10 +9004,10 @@
       </c>
       <c r="X17" s="11"/>
       <c r="Y17" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AA17" s="11">
         <v>1957</v>
@@ -8930,32 +9016,32 @@
         <v>2023</v>
       </c>
       <c r="AC17" s="11" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AE17" s="11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF17" s="13"/>
       <c r="AG17" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AH17" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AJ17" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL17" s="8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AM17" s="6">
         <v>45301</v>
@@ -8972,13 +9058,13 @@
         <v>110</v>
       </c>
       <c r="B18" s="115" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C18" s="115" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E18" s="116" t="s">
         <v>255</v>
@@ -8986,61 +9072,61 @@
       <c r="F18" s="34"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I18" s="104" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M18" s="99" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>170</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="R18" s="45" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="S18" s="125" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>174</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="W18" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AA18" s="11">
         <v>2002</v>
@@ -9050,27 +9136,27 @@
       </c>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AE18" s="11"/>
       <c r="AF18" s="13" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AH18" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AI18" s="9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AJ18" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AK18" s="9"/>
       <c r="AL18" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AM18" s="6">
         <v>45301</v>
@@ -9081,53 +9167,53 @@
         <v>110</v>
       </c>
       <c r="B19" s="115" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D19" s="115" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I19" s="109" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M19" s="99" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>147</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="R19" s="45" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="S19" s="124" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>174</v>
@@ -9136,16 +9222,16 @@
         <v>129</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="W19" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>320</v>
@@ -9163,22 +9249,22 @@
       </c>
       <c r="AF19" s="13"/>
       <c r="AG19" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AH19" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AI19" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AJ19" s="30" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AK19" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL19" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AM19" s="6">
         <v>45306</v>
@@ -9195,59 +9281,59 @@
         <v>110</v>
       </c>
       <c r="B20" s="116" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C20" s="116" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D20" s="116" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E20" s="116" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="46" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="I20" s="104" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>281</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M20" s="99" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="R20" s="45" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="S20" s="88" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>175</v>
@@ -9278,20 +9364,20 @@
       </c>
       <c r="AF20" s="13"/>
       <c r="AG20" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AH20" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AI20" s="9" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AJ20" s="30"/>
       <c r="AK20" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL20" s="8" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AM20" s="6">
         <v>45324</v>
@@ -9308,53 +9394,53 @@
         <v>110</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C21" s="116" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D21" s="116" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E21" s="117" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G21" s="40"/>
       <c r="H21" s="40" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I21" s="104" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K21" s="31" t="s">
         <v>195</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>239</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="R21" s="45" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="S21" s="88" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>203</v>
@@ -9370,7 +9456,7 @@
       </c>
       <c r="X21" s="11"/>
       <c r="Y21" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>133</v>
@@ -9388,22 +9474,22 @@
       </c>
       <c r="AF21" s="13"/>
       <c r="AG21" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AH21" s="9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AJ21" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AK21" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL21" s="8" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AM21" s="6">
         <v>45324</v>
@@ -9414,13 +9500,13 @@
         <v>110</v>
       </c>
       <c r="B22" s="116" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C22" s="116" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D22" s="116" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E22" s="117" t="s">
         <v>232</v>
@@ -9428,40 +9514,40 @@
       <c r="F22" s="34"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I22" s="104" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="R22" s="45" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="S22" s="88" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>151</v>
@@ -9470,19 +9556,19 @@
         <v>129</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="W22" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AA22" s="11">
         <v>2000</v>
@@ -9492,27 +9578,27 @@
       </c>
       <c r="AC22" s="11"/>
       <c r="AD22" s="11" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AE22" s="11"/>
       <c r="AF22" s="13"/>
       <c r="AG22" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH22" s="9" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AI22" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AJ22" s="9" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AK22" s="9" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AL22" s="8" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AM22" s="6">
         <v>45330</v>
@@ -9529,56 +9615,56 @@
         <v>110</v>
       </c>
       <c r="B23" s="116" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C23" s="116" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D23" s="116" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F23" s="116" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="40" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="I23" s="104" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="R23" s="45" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="S23" s="88" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>174</v>
@@ -9587,19 +9673,19 @@
         <v>129</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AA23" s="11">
         <v>2001</v>
@@ -9608,28 +9694,28 @@
         <v>2021</v>
       </c>
       <c r="AC23" s="11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AD23" s="11" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AE23" s="11"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AH23" s="9" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AI23" s="9" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AJ23" s="30"/>
       <c r="AK23" s="9" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AL23" s="8" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AM23" s="6">
         <v>45330</v>
@@ -9640,56 +9726,56 @@
         <v>110</v>
       </c>
       <c r="B24" s="116" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C24" s="116" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D24" s="116" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F24" s="116" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G24" s="40"/>
       <c r="H24" s="35" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="I24" s="104" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="R24" s="45" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="S24" s="40" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>174</v>
@@ -9698,19 +9784,19 @@
         <v>129</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="W24" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AA24" s="11">
         <v>2001</v>
@@ -9719,25 +9805,25 @@
         <v>2021</v>
       </c>
       <c r="AC24" s="11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AD24" s="11" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AE24" s="11"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AH24" s="9" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AI24" s="9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AJ24" s="30"/>
       <c r="AK24" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL24" s="8" t="s">
         <v>251</v>
@@ -9751,56 +9837,56 @@
         <v>110</v>
       </c>
       <c r="B25" s="116" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C25" s="116" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D25" s="116" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F25" s="116" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="46" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I25" s="104" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="R25" s="45" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="S25" s="40" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>174</v>
@@ -9809,19 +9895,19 @@
         <v>129</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="W25" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AA25" s="11">
         <v>2001</v>
@@ -9830,28 +9916,28 @@
         <v>2021</v>
       </c>
       <c r="AC25" s="11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AD25" s="11" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AE25" s="11"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AH25" s="9" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AI25" s="9" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AJ25" s="30"/>
       <c r="AK25" s="9" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AL25" s="8" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AM25" s="6">
         <v>45330</v>
@@ -9862,52 +9948,52 @@
         <v>110</v>
       </c>
       <c r="B26" s="116" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C26" s="116" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D26" s="116" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E26" s="116" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="I26" s="104"/>
       <c r="J26" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="S26" s="35" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>128</v>
@@ -9916,19 +10002,19 @@
         <v>129</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="W26" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AA26" s="11">
         <v>1979</v>
@@ -9938,29 +10024,29 @@
       </c>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AE26" s="11" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AF26" s="13"/>
       <c r="AG26" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH26" s="9" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AI26" s="9" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AJ26" s="9" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AK26" s="9" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AL26" s="8" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AM26" s="6">
         <v>45330</v>
@@ -9977,59 +10063,59 @@
         <v>110</v>
       </c>
       <c r="B27" s="116" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C27" s="116" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D27" s="116" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F27" s="116" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G27" s="40"/>
       <c r="H27" s="40" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I27" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>240</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="R27" s="47" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="S27" s="40" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="U27" s="11" t="s">
         <v>243</v>
@@ -10042,7 +10128,7 @@
       </c>
       <c r="X27" s="11"/>
       <c r="Y27" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>133</v>
@@ -10060,22 +10146,22 @@
       <c r="AE27" s="11"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="9" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AH27" s="9" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AI27" s="9" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AJ27" s="9" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AK27" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL27" s="8" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AM27" s="6">
         <v>45330</v>
@@ -10086,51 +10172,51 @@
         <v>110</v>
       </c>
       <c r="B28" s="116" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C28" s="116" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D28" s="116" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E28" s="116" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="40" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I28" s="104"/>
       <c r="J28" s="48" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="R28" s="45" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="S28" s="35" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>151</v>
@@ -10139,13 +10225,13 @@
         <v>129</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="W28" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Y28" s="1">
         <v>2010</v>
@@ -10166,15 +10252,15 @@
       <c r="AE28" s="11"/>
       <c r="AF28" s="13"/>
       <c r="AG28" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AH28" s="9"/>
       <c r="AI28" s="9" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AJ28" s="30"/>
       <c r="AK28" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL28" s="8" t="s">
         <v>251</v>
@@ -10194,54 +10280,54 @@
         <v>110</v>
       </c>
       <c r="B29" s="116" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C29" s="116" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D29" s="116" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E29" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I29" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="S29" s="40" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>151</v>
@@ -10259,10 +10345,10 @@
         <v>317</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AA29" s="11">
         <v>2000</v>
@@ -10272,27 +10358,27 @@
       </c>
       <c r="AC29" s="11"/>
       <c r="AD29" s="11" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AE29" s="11"/>
       <c r="AF29" s="13"/>
       <c r="AG29" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH29" s="9" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AI29" s="9" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="AJ29" s="9" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AK29" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL29" s="8" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AM29" s="6">
         <v>45334</v>
@@ -10309,54 +10395,54 @@
         <v>110</v>
       </c>
       <c r="B30" s="116" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C30" s="116" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D30" s="116" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E30" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="I30" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="R30" s="45" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="S30" s="35" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>151</v>
@@ -10365,7 +10451,7 @@
         <v>129</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="W30" s="11" t="s">
         <v>129</v>
@@ -10374,10 +10460,10 @@
         <v>317</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AA30" s="11">
         <v>2000</v>
@@ -10387,18 +10473,18 @@
       </c>
       <c r="AC30" s="11"/>
       <c r="AD30" s="11" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AE30" s="11"/>
       <c r="AF30" s="13"/>
       <c r="AG30" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AH30" s="9"/>
       <c r="AI30" s="9"/>
       <c r="AJ30" s="30"/>
       <c r="AK30" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL30" s="8" t="s">
         <v>251</v>
@@ -10418,54 +10504,54 @@
         <v>110</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C31" s="116" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D31" s="116" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E31" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="40"/>
       <c r="H31" s="40" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="I31" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="R31" s="45" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="S31" s="40" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>151</v>
@@ -10483,7 +10569,7 @@
         <v>317</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>320</v>
@@ -10501,16 +10587,16 @@
       <c r="AE31" s="11"/>
       <c r="AF31" s="13"/>
       <c r="AG31" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AH31" s="9"/>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL31" s="8" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AM31" s="6">
         <v>45334</v>
@@ -10527,54 +10613,54 @@
         <v>110</v>
       </c>
       <c r="B32" s="116" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C32" s="116" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D32" s="116" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E32" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="40"/>
       <c r="H32" s="40" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="I32" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="R32" s="45" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="S32" s="40" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>151</v>
@@ -10583,16 +10669,16 @@
         <v>129</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="W32" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X32" s="11" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>320</v>
@@ -10610,16 +10696,16 @@
       <c r="AE32" s="11"/>
       <c r="AF32" s="13"/>
       <c r="AG32" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AH32" s="9"/>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9"/>
       <c r="AK32" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL32" s="8" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="AM32" s="6">
         <v>45334</v>
@@ -10630,54 +10716,54 @@
         <v>110</v>
       </c>
       <c r="B33" s="116" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C33" s="116" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D33" s="116" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E33" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="I33" s="104" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="R33" s="45" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="S33" s="35" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>151</v>
@@ -10686,16 +10772,16 @@
         <v>129</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="W33" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X33" s="11" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>320</v>
@@ -10713,20 +10799,20 @@
       <c r="AE33" s="11"/>
       <c r="AF33" s="13"/>
       <c r="AG33" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AH33" s="9" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AI33" s="9" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AJ33" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AK33" s="9"/>
       <c r="AL33" s="8" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AM33" s="6">
         <v>45334</v>
@@ -10737,52 +10823,52 @@
         <v>110</v>
       </c>
       <c r="B34" s="116" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C34" s="116" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D34" s="116" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E34" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="I34" s="110"/>
       <c r="J34" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>148</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R34" s="45" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>151</v>
@@ -10791,19 +10877,19 @@
         <v>129</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="W34" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X34" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AA34" s="11">
         <v>1980</v>
@@ -10813,21 +10899,21 @@
       </c>
       <c r="AC34" s="11"/>
       <c r="AD34" s="11" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AE34" s="11"/>
       <c r="AF34" s="13"/>
       <c r="AG34" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH34" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="AI34" s="9" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="AJ34" s="9" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AK34" s="9" t="s">
         <v>250</v>
@@ -10850,54 +10936,54 @@
         <v>110</v>
       </c>
       <c r="B35" s="116" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C35" s="116" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D35" s="116" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E35" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="I35" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>148</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="R35" s="45" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="S35" s="35" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>151</v>
@@ -10906,19 +10992,19 @@
         <v>129</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="W35" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X35" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="AA35" s="11">
         <v>1980</v>
@@ -10928,24 +11014,24 @@
       </c>
       <c r="AC35" s="11"/>
       <c r="AD35" s="11" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AE35" s="11"/>
       <c r="AF35" s="13"/>
       <c r="AG35" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH35" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="AI35" s="9" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AJ35" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AK35" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL35" s="8" t="s">
         <v>251</v>
@@ -10959,54 +11045,54 @@
         <v>110</v>
       </c>
       <c r="B36" s="116" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C36" s="116" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D36" s="116" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E36" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="40"/>
       <c r="H36" s="40" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="I36" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="M36" s="32" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>148</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="R36" s="45" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="S36" s="35" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>151</v>
@@ -11015,16 +11101,16 @@
         <v>129</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="W36" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X36" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>155</v>
@@ -11042,16 +11128,16 @@
       <c r="AE36" s="11"/>
       <c r="AF36" s="13"/>
       <c r="AG36" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH36" s="9" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AI36" s="9" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AJ36" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AK36" s="9" t="s">
         <v>186</v>
@@ -11068,54 +11154,54 @@
         <v>110</v>
       </c>
       <c r="B37" s="116" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C37" s="116" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D37" s="116" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E37" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="I37" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>148</v>
       </c>
       <c r="Q37" s="93" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="R37" s="45" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="S37" s="35" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>151</v>
@@ -11124,16 +11210,16 @@
         <v>129</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="W37" s="33" t="s">
         <v>129</v>
       </c>
       <c r="X37" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>155</v>
@@ -11151,16 +11237,16 @@
       <c r="AE37" s="11"/>
       <c r="AF37" s="13"/>
       <c r="AG37" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AK37" s="9" t="s">
         <v>186</v>
@@ -11177,54 +11263,54 @@
         <v>110</v>
       </c>
       <c r="B38" s="116" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C38" s="116" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D38" s="116" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E38" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="I38" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="M38" s="32" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>148</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="R38" s="45" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="S38" s="35" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>151</v>
@@ -11233,16 +11319,16 @@
         <v>129</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="W38" s="33" t="s">
         <v>129</v>
       </c>
       <c r="X38" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>155</v>
@@ -11260,16 +11346,16 @@
       <c r="AE38" s="11"/>
       <c r="AF38" s="13"/>
       <c r="AG38" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH38" s="9" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="AI38" s="9" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="AJ38" s="9" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="AK38" s="9" t="s">
         <v>186</v>
@@ -11286,54 +11372,54 @@
         <v>110</v>
       </c>
       <c r="B39" s="116" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C39" s="116" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D39" s="116" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E39" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="40"/>
       <c r="H39" s="40" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="I39" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>148</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="R39" s="45" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="S39" s="35" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>151</v>
@@ -11342,16 +11428,16 @@
         <v>129</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="W39" s="33" t="s">
         <v>129</v>
       </c>
       <c r="X39" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>155</v>
@@ -11369,16 +11455,16 @@
       <c r="AE39" s="11"/>
       <c r="AF39" s="13"/>
       <c r="AG39" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH39" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="AI39" s="9" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AJ39" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AK39" s="9" t="s">
         <v>186</v>
@@ -11395,54 +11481,54 @@
         <v>110</v>
       </c>
       <c r="B40" s="116" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C40" s="116" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D40" s="116" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E40" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="I40" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="M40" s="32" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>148</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="R40" s="45" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="S40" s="35" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>151</v>
@@ -11451,16 +11537,16 @@
         <v>129</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="W40" s="33" t="s">
         <v>129</v>
       </c>
       <c r="X40" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>155</v>
@@ -11478,14 +11564,14 @@
       <c r="AE40" s="11"/>
       <c r="AF40" s="13"/>
       <c r="AG40" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH40" s="9" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="AI40" s="9"/>
       <c r="AJ40" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AK40" s="9" t="s">
         <v>186</v>
@@ -11502,54 +11588,54 @@
         <v>110</v>
       </c>
       <c r="B41" s="116" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C41" s="116" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D41" s="116" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E41" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="40"/>
       <c r="H41" s="40" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="I41" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="M41" s="32" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="N41" s="52" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="O41" s="52" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>148</v>
       </c>
       <c r="Q41" s="86" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="R41" s="45" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="S41" s="35" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>151</v>
@@ -11558,16 +11644,16 @@
         <v>129</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="W41" s="33" t="s">
         <v>129</v>
       </c>
       <c r="X41" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>155</v>
@@ -11585,14 +11671,14 @@
       <c r="AE41" s="11"/>
       <c r="AF41" s="13"/>
       <c r="AG41" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH41" s="9" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="AI41" s="9"/>
       <c r="AJ41" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AK41" s="9" t="s">
         <v>186</v>
@@ -11609,54 +11695,54 @@
         <v>110</v>
       </c>
       <c r="B42" s="116" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C42" s="116" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D42" s="116" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E42" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="40"/>
       <c r="H42" s="40" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I42" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>148</v>
       </c>
       <c r="Q42" s="86" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="R42" s="45" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="S42" s="35" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>151</v>
@@ -11665,16 +11751,16 @@
         <v>129</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="W42" s="33" t="s">
         <v>129</v>
       </c>
       <c r="X42" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>155</v>
@@ -11687,19 +11773,19 @@
       </c>
       <c r="AC42" s="11"/>
       <c r="AD42" s="11" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AE42" s="11"/>
       <c r="AF42" s="13"/>
       <c r="AG42" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH42" s="9" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AI42" s="9"/>
       <c r="AJ42" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AK42" s="9" t="s">
         <v>186</v>
@@ -11716,54 +11802,54 @@
         <v>110</v>
       </c>
       <c r="B43" s="116" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C43" s="116" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D43" s="116" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="35"/>
       <c r="H43" s="40" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="I43" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>148</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="R43" s="45" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="S43" s="35" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>151</v>
@@ -11772,16 +11858,16 @@
         <v>129</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="W43" s="33" t="s">
         <v>129</v>
       </c>
       <c r="X43" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>155</v>
@@ -11799,14 +11885,14 @@
       <c r="AE43" s="11"/>
       <c r="AF43" s="13"/>
       <c r="AG43" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH43" s="9" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="AI43" s="9"/>
       <c r="AJ43" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AK43" s="9" t="s">
         <v>186</v>
@@ -11823,54 +11909,54 @@
         <v>110</v>
       </c>
       <c r="B44" s="115" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C44" s="116" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D44" s="116" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F44" s="116" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="G44" s="40"/>
       <c r="H44" s="40" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="I44" s="104"/>
       <c r="J44" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="M44" s="32" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="R44" s="45" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="S44" s="35" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>151</v>
@@ -11888,7 +11974,7 @@
         <v>317</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="Z44" s="1" t="s">
         <v>133</v>
@@ -11906,15 +11992,15 @@
       <c r="AE44" s="11"/>
       <c r="AF44" s="13"/>
       <c r="AG44" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AH44" s="9"/>
       <c r="AI44" s="9" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="AJ44" s="30"/>
       <c r="AK44" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL44" s="8" t="s">
         <v>251</v>
@@ -11934,13 +12020,13 @@
         <v>110</v>
       </c>
       <c r="B45" s="116" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C45" s="116" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D45" s="116" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>232</v>
@@ -11948,38 +12034,38 @@
       <c r="F45" s="34"/>
       <c r="G45" s="35"/>
       <c r="H45" s="40" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="I45" s="104"/>
       <c r="J45" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="R45" s="45" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="S45" s="40" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>151</v>
@@ -11988,16 +12074,16 @@
         <v>129</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="W45" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X45" s="11" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>133</v>
@@ -12009,7 +12095,7 @@
         <v>2020</v>
       </c>
       <c r="AC45" s="11" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="AD45" s="11" t="s">
         <v>133</v>
@@ -12017,22 +12103,22 @@
       <c r="AE45" s="11"/>
       <c r="AF45" s="13"/>
       <c r="AG45" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AH45" s="9" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="AI45" s="9" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="AJ45" s="9" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="AK45" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL45" s="8" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="AM45" s="6">
         <v>45334</v>
@@ -12043,52 +12129,52 @@
         <v>110</v>
       </c>
       <c r="B46" s="116" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C46" s="116" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D46" s="116" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="E46" s="116" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="40"/>
       <c r="H46" s="40" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="I46" s="104"/>
       <c r="J46" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="R46" s="45" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="S46" s="35" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>128</v>
@@ -12104,7 +12190,7 @@
       </c>
       <c r="X46" s="11"/>
       <c r="Y46" s="1" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>320</v>
@@ -12122,22 +12208,22 @@
       <c r="AE46" s="11"/>
       <c r="AF46" s="13"/>
       <c r="AG46" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH46" s="9" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="AI46" s="9" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="AJ46" s="9" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="AK46" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL46" s="8" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="AM46" s="6">
         <v>45334</v>
@@ -12154,52 +12240,52 @@
         <v>110</v>
       </c>
       <c r="B47" s="115" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C47" s="116" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D47" s="116" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E47" s="116" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="40"/>
       <c r="H47" s="40" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="I47" s="104"/>
       <c r="J47" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>148</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="R47" s="45" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="S47" s="35" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>151</v>
@@ -12208,19 +12294,19 @@
         <v>129</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="W47" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X47" s="11" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AA47" s="11">
         <v>2018</v>
@@ -12230,25 +12316,25 @@
       </c>
       <c r="AC47" s="11"/>
       <c r="AD47" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AE47" s="11"/>
       <c r="AF47" s="13"/>
       <c r="AG47" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AH47" s="9"/>
       <c r="AI47" s="9" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="AJ47" s="9" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="AK47" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL47" s="8" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="AM47" s="6">
         <v>45330</v>
@@ -12259,54 +12345,54 @@
         <v>110</v>
       </c>
       <c r="B48" s="116" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C48" s="116" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D48" s="116" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F48" s="116" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G48" s="40"/>
       <c r="H48" s="40" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I48" s="104"/>
       <c r="J48" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="S48" s="35" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>174</v>
@@ -12315,16 +12401,16 @@
         <v>129</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="W48" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X48" s="11" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>320</v>
@@ -12342,20 +12428,20 @@
       <c r="AE48" s="11"/>
       <c r="AF48" s="13"/>
       <c r="AG48" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH48" s="9" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="AI48" s="9" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="AJ48" s="9" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="AK48" s="9"/>
       <c r="AL48" s="8" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="AM48" s="6">
         <v>45349</v>
@@ -12372,54 +12458,54 @@
         <v>110</v>
       </c>
       <c r="B49" s="116" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C49" s="116" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D49" s="116" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="E49" s="116" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="40"/>
       <c r="H49" s="40" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="I49" s="104" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="R49" s="45" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="S49" s="35" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>151</v>
@@ -12428,19 +12514,19 @@
         <v>129</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="W49" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X49" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AA49" s="11">
         <v>1982</v>
@@ -12449,30 +12535,30 @@
         <v>2024</v>
       </c>
       <c r="AC49" s="11" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="AD49" s="11" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AE49" s="11"/>
       <c r="AF49" s="13"/>
       <c r="AG49" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH49" s="9" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="AI49" s="9" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="AJ49" s="9" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="AK49" s="9" t="s">
         <v>159</v>
       </c>
       <c r="AL49" s="8" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="AM49" s="6">
         <v>45349</v>
@@ -12483,54 +12569,54 @@
         <v>110</v>
       </c>
       <c r="B50" s="116" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C50" s="116" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D50" s="116" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="40"/>
       <c r="H50" s="40" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="I50" s="104" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="R50" s="45" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="S50" s="94" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>151</v>
@@ -12539,19 +12625,19 @@
         <v>129</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="W50" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X50" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AA50" s="11">
         <v>1982</v>
@@ -12560,30 +12646,30 @@
         <v>2024</v>
       </c>
       <c r="AC50" s="11" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="AD50" s="11" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AE50" s="11"/>
       <c r="AF50" s="13"/>
       <c r="AG50" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AH50" s="9" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="AI50" s="9" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="AJ50" s="9" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="AK50" s="9" t="s">
         <v>159</v>
       </c>
       <c r="AL50" s="8" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="AM50" s="6">
         <v>45362</v>
@@ -12594,52 +12680,52 @@
         <v>110</v>
       </c>
       <c r="B51" s="116" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C51" s="116" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D51" s="116" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="I51" s="104"/>
       <c r="J51" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="R51" s="45" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="S51" s="35" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="T51" s="1" t="s">
         <v>151</v>
@@ -12648,19 +12734,19 @@
         <v>129</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="W51" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X51" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="AA51" s="11">
         <v>2000</v>
@@ -12669,28 +12755,28 @@
         <v>2015</v>
       </c>
       <c r="AC51" s="11" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="AD51" s="11" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="AE51" s="11"/>
       <c r="AF51" s="13"/>
       <c r="AG51" s="9" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AH51" s="9" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="AI51" s="9" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="AJ51" s="9"/>
       <c r="AK51" s="9" t="s">
         <v>159</v>
       </c>
       <c r="AL51" s="8" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="AM51" s="6">
         <v>45349</v>
@@ -12701,70 +12787,70 @@
         <v>110</v>
       </c>
       <c r="B52" s="116" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C52" s="116" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F52" s="116" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="G52" s="40"/>
       <c r="H52" s="40" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="I52" s="104"/>
       <c r="J52" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="R52" s="45" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="S52" s="39" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>151</v>
       </c>
       <c r="U52" s="11" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="W52" s="11" t="s">
         <v>204</v>
       </c>
       <c r="X52" s="11"/>
       <c r="Y52" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="Z52" s="1" t="s">
         <v>207</v>
@@ -12776,7 +12862,7 @@
         <v>245</v>
       </c>
       <c r="AC52" s="11" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="AD52" s="11" t="s">
         <v>207</v>
@@ -12784,22 +12870,22 @@
       <c r="AE52" s="11"/>
       <c r="AF52" s="13"/>
       <c r="AG52" s="9" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AH52" s="9" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="AI52" s="9" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="AJ52" s="9" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="AK52" s="9" t="s">
         <v>159</v>
       </c>
       <c r="AL52" s="8" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="AM52" s="6">
         <v>45349</v>
@@ -12810,54 +12896,54 @@
         <v>110</v>
       </c>
       <c r="B53" s="116" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C53" s="116" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D53" s="116" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F53" s="116" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="I53" s="104"/>
       <c r="J53" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>218</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="R53" s="45" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="S53" s="35" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>151</v>
@@ -12875,10 +12961,10 @@
         <v>317</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="AA53" s="11">
         <v>1992</v>
@@ -12891,20 +12977,20 @@
         <v>180</v>
       </c>
       <c r="AE53" s="11" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="AF53" s="13"/>
       <c r="AG53" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AH53" s="9" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AI53" s="9" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="AJ53" s="9" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="AK53" s="9" t="s">
         <v>159</v>
@@ -12919,75 +13005,75 @@
         <v>110</v>
       </c>
       <c r="B54" s="115" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C54" s="116" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D54" s="116" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F54" s="116" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="G54" s="40"/>
       <c r="H54" s="40" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="I54" s="104"/>
       <c r="J54" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="R54" s="45" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="S54" s="35" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="U54" s="11" t="s">
         <v>129</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="W54" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X54" s="11" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="Y54" s="1">
         <v>2018</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="AA54" s="11">
         <v>2018</v>
@@ -12997,29 +13083,29 @@
       </c>
       <c r="AC54" s="11"/>
       <c r="AD54" s="11" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="AE54" s="11" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="AF54" s="13"/>
       <c r="AG54" s="9" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AH54" s="9" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="AI54" s="9" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="AJ54" s="9" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="AK54" s="9" t="s">
         <v>159</v>
       </c>
       <c r="AL54" s="8" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="AM54" s="6">
         <v>45362</v>
@@ -13036,56 +13122,56 @@
         <v>110</v>
       </c>
       <c r="B55" s="115" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C55" s="116" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F55" s="116" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="G55" s="40"/>
       <c r="H55" s="40" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="I55" s="104" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="O55" s="11" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>170</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="R55" s="45" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="S55" s="86" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>128</v>
@@ -13094,19 +13180,19 @@
         <v>129</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="W55" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X55" s="11" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="AA55" s="11">
         <v>1990</v>
@@ -13116,23 +13202,23 @@
       </c>
       <c r="AC55" s="11"/>
       <c r="AD55" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AE55" s="11" t="s">
         <v>155</v>
       </c>
       <c r="AF55" s="13" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="AG55" s="9" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="AH55" s="9" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="AI55" s="9"/>
       <c r="AJ55" s="9" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="AK55" s="9" t="s">
         <v>159</v>
@@ -13153,54 +13239,54 @@
         <v>110</v>
       </c>
       <c r="B56" s="116" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C56" s="116" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F56" s="116" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="G56" s="40"/>
       <c r="H56" s="40" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="I56" s="104"/>
       <c r="J56" s="1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>148</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="R56" s="45" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="S56" s="40" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>128</v>
@@ -13209,16 +13295,16 @@
         <v>129</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="W56" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X56" s="11" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="Z56" s="1" t="s">
         <v>155</v>
@@ -13236,14 +13322,14 @@
       <c r="AE56" s="11"/>
       <c r="AF56" s="13"/>
       <c r="AG56" s="9" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="AH56" s="9" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="AI56" s="9"/>
       <c r="AJ56" s="9" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="AK56" s="9" t="s">
         <v>159</v>
@@ -13264,51 +13350,51 @@
         <v>110</v>
       </c>
       <c r="B57" s="115" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C57" s="115" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="35"/>
       <c r="H57" s="40" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="I57" s="104"/>
       <c r="J57" s="1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="O57" s="11" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="R57" s="45" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="S57" s="35" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>128</v>
@@ -13317,19 +13403,19 @@
         <v>129</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="W57" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X57" s="11" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AA57" s="11">
         <v>1979</v>
@@ -13339,23 +13425,23 @@
       </c>
       <c r="AC57" s="11"/>
       <c r="AD57" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AE57" s="11"/>
       <c r="AF57" s="13"/>
       <c r="AG57" s="9" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="AH57" s="9" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="AI57" s="9" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="AJ57" s="30"/>
       <c r="AK57" s="9"/>
       <c r="AL57" s="8" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="AM57" s="6">
         <v>45349</v>
@@ -13372,52 +13458,52 @@
         <v>110</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D58" s="113" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E58" s="113" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="95"/>
       <c r="H58" s="95" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="I58" s="104"/>
       <c r="J58" s="1" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="O58" s="11" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="R58" s="45" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="S58" s="35" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>174</v>
@@ -13426,7 +13512,7 @@
         <v>175</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="W58" s="11" t="s">
         <v>292</v>
@@ -13435,10 +13521,10 @@
         <v>293</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="AA58" s="11">
         <v>1979</v>
@@ -13447,7 +13533,7 @@
         <v>2023</v>
       </c>
       <c r="AC58" s="11" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="AD58" s="11" t="s">
         <v>320</v>
@@ -13455,20 +13541,20 @@
       <c r="AE58" s="11"/>
       <c r="AF58" s="13"/>
       <c r="AG58" s="9" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="AH58" s="9" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="AI58" s="9" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="AJ58" s="9" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="AK58" s="9"/>
       <c r="AL58" s="8" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="AM58" s="6">
         <v>45362</v>
@@ -13485,52 +13571,52 @@
         <v>110</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="D59" s="113" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="E59" s="113" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="95"/>
       <c r="H59" s="95" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="I59" s="104"/>
       <c r="J59" s="1" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="M59" s="32" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="O59" s="11" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="R59" s="45" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="S59" s="35" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="T59" s="1" t="s">
         <v>174</v>
@@ -13539,7 +13625,7 @@
         <v>175</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="W59" s="11" t="s">
         <v>292</v>
@@ -13548,7 +13634,7 @@
         <v>293</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="Z59" s="1" t="s">
         <v>154</v>
@@ -13568,20 +13654,20 @@
       </c>
       <c r="AF59" s="13"/>
       <c r="AG59" s="9" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="AH59" s="9" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="AI59" s="9" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="AJ59" s="9" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="AK59" s="9"/>
       <c r="AL59" s="8" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="AM59" s="6">
         <v>45362</v>
@@ -13598,52 +13684,52 @@
         <v>110</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D60" s="113" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="E60" s="113" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="95"/>
       <c r="H60" s="95" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="I60" s="104"/>
       <c r="J60" s="1" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="O60" s="11" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="R60" s="45" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="S60" s="35" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>174</v>
@@ -13659,7 +13745,7 @@
       </c>
       <c r="X60" s="11"/>
       <c r="Y60" s="1" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="Z60" s="1" t="s">
         <v>133</v>
@@ -13677,20 +13763,20 @@
       <c r="AE60" s="11"/>
       <c r="AF60" s="13"/>
       <c r="AG60" s="9" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="AH60" s="9" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="AI60" s="9" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="AJ60" s="9" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="AK60" s="9"/>
       <c r="AL60" s="8" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="AM60" s="6">
         <v>45362</v>
@@ -13701,75 +13787,75 @@
         <v>110</v>
       </c>
       <c r="B61" s="113" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C61" s="113" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D61" s="113" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="G61" s="35"/>
       <c r="H61" s="95" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="I61" s="104"/>
       <c r="J61" s="1" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="O61" s="11" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="R61" s="45" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="S61" s="35" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="U61" s="11" t="s">
         <v>129</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="W61" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X61" s="11" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="AA61" s="11">
         <v>2003</v>
@@ -13782,26 +13868,26 @@
         <v>133</v>
       </c>
       <c r="AE61" s="11" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="AF61" s="13" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="AG61" s="9" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="AH61" s="9" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="AI61" s="9" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="AJ61" s="9" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="AK61" s="9"/>
       <c r="AL61" s="8" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="AM61" s="6">
         <v>45362</v>
@@ -13812,52 +13898,52 @@
         <v>110</v>
       </c>
       <c r="B62" s="113" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C62" s="113" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="D62" s="113" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="I62" s="104"/>
       <c r="J62" s="1" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="O62" s="11" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>170</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="R62" s="45" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="S62" s="35" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>203</v>
@@ -13873,7 +13959,7 @@
       </c>
       <c r="X62" s="11"/>
       <c r="Y62" s="1" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="Z62" s="1" t="s">
         <v>320</v>
@@ -13885,7 +13971,7 @@
         <v>2023</v>
       </c>
       <c r="AC62" s="11" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="AD62" s="11" t="s">
         <v>320</v>
@@ -13893,10 +13979,10 @@
       <c r="AE62" s="11"/>
       <c r="AF62" s="13"/>
       <c r="AG62" s="9" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="AH62" s="9" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="AI62" s="9"/>
       <c r="AJ62" s="30"/>
@@ -13917,13 +14003,13 @@
         <v>110</v>
       </c>
       <c r="B63" s="113" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C63" s="113" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D63" s="114" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="E63" s="113" t="s">
         <v>255</v>
@@ -13931,38 +14017,38 @@
       <c r="F63" s="34"/>
       <c r="G63" s="95"/>
       <c r="H63" s="35" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="I63" s="104"/>
       <c r="J63" s="1" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="K63" s="122" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="O63" s="11" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="R63" s="45" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="S63" s="35" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>174</v>
@@ -13971,19 +14057,19 @@
         <v>129</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="W63" s="11" t="s">
         <v>129</v>
       </c>
       <c r="X63" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Y63" s="1">
         <v>2016</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AA63" s="11">
         <v>2016</v>
@@ -13993,25 +14079,25 @@
       </c>
       <c r="AC63" s="11"/>
       <c r="AD63" s="11" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AE63" s="11"/>
       <c r="AF63" s="13"/>
       <c r="AG63" s="9" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="AH63" s="9" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="AI63" s="9" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="AJ63" s="9" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="AK63" s="9"/>
       <c r="AL63" s="8" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="AM63" s="6">
         <v>45364</v>
@@ -14028,52 +14114,52 @@
         <v>110</v>
       </c>
       <c r="B64" s="113" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C64" s="113" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="D64" s="113" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="I64" s="104"/>
       <c r="J64" s="1" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="M64" s="32" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="O64" s="11" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="R64" s="45" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="S64" s="35" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>174</v>
@@ -14092,7 +14178,7 @@
         <v>2021</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="AA64" s="11">
         <v>2021</v>
@@ -14107,18 +14193,18 @@
       <c r="AE64" s="11"/>
       <c r="AF64" s="13"/>
       <c r="AG64" s="9" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="AH64" s="9" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="AI64" s="9"/>
       <c r="AJ64" s="9" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="AK64" s="9"/>
       <c r="AL64" s="8" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="AM64" s="6">
         <v>45364</v>
@@ -14135,52 +14221,52 @@
         <v>110</v>
       </c>
       <c r="B65" s="113" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="C65" s="113" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="D65" s="113" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="I65" s="111"/>
       <c r="J65" s="5" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="O65" s="11" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="R65" s="45" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="S65" s="35" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="T65" s="1" t="s">
         <v>203</v>
@@ -14189,7 +14275,7 @@
         <v>175</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="W65" s="11" t="s">
         <v>292</v>
@@ -14198,7 +14284,7 @@
         <v>293</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="Z65" s="1" t="s">
         <v>133</v>
@@ -14210,7 +14296,7 @@
         <v>245</v>
       </c>
       <c r="AC65" s="11" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="AD65" s="11" t="s">
         <v>133</v>
@@ -14218,18 +14304,18 @@
       <c r="AE65" s="11"/>
       <c r="AF65" s="13"/>
       <c r="AG65" s="9" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="AH65" s="9" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="AI65" s="9"/>
       <c r="AJ65" s="9" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="AK65" s="9"/>
       <c r="AL65" s="8" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="AM65" s="6">
         <v>45366</v>
@@ -14240,52 +14326,52 @@
         <v>110</v>
       </c>
       <c r="B66" s="113" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C66" s="113" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="D66" s="113" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="E66" s="113" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="95"/>
       <c r="H66" s="35" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="I66" s="104"/>
       <c r="J66" s="1" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>170</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="R66" s="45" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="S66" s="40" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>203</v>
@@ -14301,7 +14387,7 @@
       </c>
       <c r="X66" s="11"/>
       <c r="Y66" s="1" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="Z66" s="1" t="s">
         <v>154</v>
@@ -14322,11 +14408,11 @@
       <c r="AF66" s="13"/>
       <c r="AG66" s="9"/>
       <c r="AH66" s="9" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="AI66" s="9"/>
       <c r="AJ66" s="9" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="AK66" s="9"/>
       <c r="AL66" s="123"/>
@@ -14442,10 +14528,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D8052A-BE86-0A40-B617-46E6A1715A11}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -14456,10 +14542,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="37" customFormat="1">
       <c r="A1" s="36" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="37" customFormat="1" ht="15.75">
@@ -14470,40 +14556,48 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="B15" t="s">
-        <v>1288</v>
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1291</v>
       </c>
     </row>
   </sheetData>
@@ -14533,184 +14627,184 @@
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" ht="18">
       <c r="A1" s="14" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="15" customFormat="1" ht="20.45">
       <c r="A2" s="15" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>119</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="15" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>119</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="15" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>119</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="15" customFormat="1" ht="20.45">
       <c r="A5" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>119</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="15" customFormat="1" ht="20.45">
       <c r="A6" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>119</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="15" customFormat="1" ht="20.45">
       <c r="A7" s="15" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>119</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="16" customFormat="1">
       <c r="A8" s="16" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>119</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="15" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>218</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="15" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>239</v>
@@ -14718,16 +14812,16 @@
     </row>
     <row r="11" spans="1:7" s="15" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>199</v>
@@ -14735,19 +14829,19 @@
     </row>
     <row r="12" spans="1:7" s="18" customFormat="1">
       <c r="A12" s="18" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>222</v>
@@ -14755,386 +14849,386 @@
     </row>
     <row r="13" spans="1:7" s="18" customFormat="1">
       <c r="A13" s="18" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="15" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>218</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="18" customFormat="1">
       <c r="A15" s="18" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="15" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="15" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1">
       <c r="A18" s="18" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1">
       <c r="A19" s="18" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="15" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>218</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="15" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="15" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="18" customFormat="1">
       <c r="A23" s="18" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="18" customFormat="1">
       <c r="A24" s="18" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="15" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>218</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="15" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="18" customFormat="1">
       <c r="A27" s="18" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>218</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="15" customFormat="1">
       <c r="A28" s="15" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="18" customFormat="1">
       <c r="A29" s="18" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="18" customFormat="1">
       <c r="A30" s="18" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="18" customFormat="1">
       <c r="A31" s="18" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="18" customFormat="1">
       <c r="A32" s="18" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="18" customFormat="1">
       <c r="A33" s="18" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
     </row>
   </sheetData>
@@ -15158,47 +15252,47 @@
   <sheetData>
     <row r="1" spans="1:2" ht="46.5">
       <c r="A1" s="54" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="77.45">
       <c r="A2" s="56" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="58" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B6" s="57" t="s">
         <v>232</v>
@@ -15206,7 +15300,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>255</v>
@@ -15214,215 +15308,215 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="60" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="59" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="61" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="62" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="63" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="58" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="59" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" s="65" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
     </row>
   </sheetData>
@@ -15434,8 +15528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3620960E-6A63-4398-9345-D6419F603125}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -15446,114 +15540,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="112" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="B1" s="101" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="145" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B2" s="144" t="s">
-        <v>1402</v>
+      <c r="A2" s="130" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="142" t="s">
-        <v>1403</v>
+      <c r="A3" s="127" t="s">
+        <v>1406</v>
       </c>
       <c r="B3" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" s="142" t="s">
-        <v>1405</v>
+      <c r="A4" s="127" t="s">
+        <v>1408</v>
       </c>
       <c r="B4" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="142" t="s">
-        <v>1407</v>
+      <c r="A5" s="127" t="s">
+        <v>1410</v>
       </c>
       <c r="B5" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="142" t="s">
-        <v>1409</v>
+      <c r="A6" s="127" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="142" t="s">
-        <v>1410</v>
+      <c r="A7" s="127" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
-      <c r="A8" s="142" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B8" s="142" t="s">
-        <v>1412</v>
+      <c r="A8" s="127" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
-      <c r="A9" s="142" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B9" s="142"/>
+      <c r="A9" s="127" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B9" s="127"/>
     </row>
     <row r="10" spans="1:2" ht="15.75">
-      <c r="A10" s="142" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B10" s="142"/>
+      <c r="A10" s="127" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B10" s="127"/>
     </row>
     <row r="11" spans="1:2" ht="15.75">
-      <c r="A11" s="142" t="s">
-        <v>1415</v>
+      <c r="A11" s="127" t="s">
+        <v>1418</v>
       </c>
       <c r="B11" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="142" t="s">
-        <v>1417</v>
+      <c r="A12" s="127" t="s">
+        <v>1420</v>
       </c>
       <c r="B12" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="142" t="s">
-        <v>1419</v>
+      <c r="A13" s="127" t="s">
+        <v>1422</v>
       </c>
       <c r="B13" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="142" t="s">
-        <v>1421</v>
+      <c r="A14" s="127" t="s">
+        <v>1424</v>
       </c>
       <c r="B14" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="142" t="s">
-        <v>1423</v>
+      <c r="A15" s="127" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="142" t="s">
-        <v>1424</v>
+      <c r="A16" s="127" t="s">
+        <v>1427</v>
       </c>
     </row>
   </sheetData>
@@ -15562,6 +15656,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2de882ca-9509-47c1-8c64-fb583c88719d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="687fcabb-7907-411d-9d68-e27ef4ca3abf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BAD4B8DE911AC343BFDC9276B63D4692" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="da715119a34c6f135312c33e82e796ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2de882ca-9509-47c1-8c64-fb583c88719d" xmlns:ns3="687fcabb-7907-411d-9d68-e27ef4ca3abf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="302baa9287f9ef7b911acf2a14e6f5ac" ns2:_="" ns3:_="">
     <xsd:import namespace="2de882ca-9509-47c1-8c64-fb583c88719d"/>
@@ -15790,17 +15895,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2de882ca-9509-47c1-8c64-fb583c88719d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="687fcabb-7907-411d-9d68-e27ef4ca3abf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15811,11 +15905,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F99A077B-1777-4449-B703-6FEE4C1C2ECC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A191B0-C3D7-488C-ACAC-B7E55D563B0F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A191B0-C3D7-488C-ACAC-B7E55D563B0F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F99A077B-1777-4449-B703-6FEE4C1C2ECC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/pcor_tools/tests/test_resources/key-datasets-sample.xlsx
+++ b/pcor_tools/tests/test_resources/key-datasets-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih.sharepoint.com/sites/NIH-PCOR-Geospatial-Data-and-Health/Shared Documents/General/Data Analysis/Key_Datasets_Lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaymc/Documents/workspace-pcor/pcor_gen3_artifacts/pcor_tools/tests/test_resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B9D2850-2126-44DB-93C3-8787A17C3572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1617E0-A2ED-8F4D-9B8F-FF726DCB3184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="1" xr2:uid="{637B4EA7-186F-8E46-863B-6788CC042C6C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33660" windowHeight="21900" firstSheet="1" activeTab="1" xr2:uid="{637B4EA7-186F-8E46-863B-6788CC042C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="11" r:id="rId1"/>
@@ -466,6 +466,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Modeled Data, Air Pollution, PM2.5, Criteria Air Pollutants, Air Pollution Composition, </t>
     </r>
@@ -474,6 +475,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Air Pollution Mixtures</t>
     </r>
@@ -482,6 +484,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, Chemical Transport Model, Remote Sensing, Concentration Prediction, Annual Average, Geographically Weighted Regression, North America</t>
     </r>
@@ -561,6 +564,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Modeled Data, Air Pollution, PM2.5, Criteria Air Pollutants, </t>
     </r>
@@ -569,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Chemical Transport Model, Remote Sensing,</t>
     </r>
@@ -577,6 +582,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Concentration Prediction, Annual Average, Monthly Average, Geographically Weighted Regression, Global</t>
     </r>
@@ -653,6 +659,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Modeled Data, Air Pollution, </t>
     </r>
@@ -661,6 +668,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PM2.5, PM10, NO2, CO, SO2</t>
     </r>
@@ -669,6 +677,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -677,6 +686,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>O3, Air Pollution Mixtures</t>
     </r>
@@ -685,6 +695,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -693,6 +704,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Remote Sensing</t>
     </r>
@@ -701,6 +713,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -709,6 +722,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Criteria Air Pollutants</t>
     </r>
@@ -717,6 +731,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, Concentration Prediction, Annual Average, </t>
     </r>
@@ -725,6 +740,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Land Use Regression</t>
     </r>
@@ -733,6 +749,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, CONUS</t>
     </r>
@@ -833,6 +850,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Airports, Aircraft Landing Facilities, Registry, </t>
     </r>
@@ -841,6 +859,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Mapped Locations</t>
     </r>
@@ -849,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, United States </t>
     </r>
@@ -978,6 +998,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Transportation, Roads, </t>
     </r>
@@ -986,6 +1007,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Highways, Mapped Locations</t>
     </r>
@@ -994,6 +1016,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, Road Classification, Global</t>
     </r>
@@ -1004,6 +1027,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Locations of roads and their functional classification </t>
     </r>
@@ -1012,6 +1036,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(highway, primary road, secondary road, tertiary road, local road, trail, private road)</t>
     </r>
@@ -1088,6 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Air Pollution, Water Pollution, Land Pollution, Regulated Pollutants, Toxic Emissions, Mass Estimate, Annual Average, </t>
     </r>
@@ -1096,6 +1122,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Polluting Industrial Facilities</t>
     </r>
@@ -1104,6 +1131,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, United States</t>
     </r>
@@ -1177,6 +1205,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Social Vulnerability Index</t>
     </r>
@@ -1185,6 +1214,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, Social Factors, Medical Factors, Disasters, Hazard Events, Community Preparedness, Disaster Management, Census Data, United States</t>
     </r>
@@ -1264,6 +1294,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">May need to discuss Project Sponsor, Name, etc. NASA hosts the dataset and data through SEDAC under Air Quality Data for Health-Related Applications, but the work itself was funded by several grants (EPA,,HEI, HHS/NIH and HERCULES Center). 
 </t>
@@ -1275,6 +1306,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">So who should be noted as the Project_Sponsor? 
 </t>
@@ -1286,6 +1318,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Same thing for next two datasets</t>
     </r>
@@ -1294,6 +1327,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1310,6 +1344,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Modeled Data, </t>
     </r>
@@ -1318,6 +1353,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ensemble Model</t>
     </r>
@@ -1326,6 +1362,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1334,6 +1371,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Generalized Additive Model, Chemical Transport Model, Remote Sensing</t>
     </r>
@@ -1342,6 +1380,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1350,6 +1389,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Machine Learning</t>
     </r>
@@ -1358,6 +1398,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, Air Pollution, PM2.5, Concentration, Annual Average, Daily Average, Machine Learning, CONUS</t>
     </r>
@@ -1434,6 +1475,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Modeled Data, </t>
     </r>
@@ -1442,6 +1484,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ensemble Model, Generalized Additive Model, Chemical Transport Model, Remote Sensing</t>
     </r>
@@ -1450,6 +1493,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1458,6 +1502,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Machine Learning,</t>
     </r>
@@ -1466,6 +1511,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Air Pollution, NO2, Concentration Prediction, Annual Average, Daily Average, CONUS</t>
     </r>
@@ -1518,6 +1564,7 @@
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ensemble Model, Generalized Additive Model, Chemical Transport Model, Remote Sensing, Machine Learning</t>
     </r>
@@ -1526,6 +1573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, Air Pollution, Ozone, Concentration Prediction, Annual Average, Daily 8-hour Maximum Average, CONUS</t>
     </r>
@@ -1998,6 +2046,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2008,6 +2057,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SUGGEST</t>
     </r>
@@ -2017,6 +2067,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (see info from data source URL)
 </t>
@@ -2026,6 +2077,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>The Community Deprivation Index (CDI) dataset contains a deprivation index for each census tract in the United States based on a principal components analysis of six different 2015 American Community Survey measures: population below poverty level, median income, high school education, health insurance status, assistance income, and vacant housing. The first component, poverty level, explains over 60% of the total variance compared to the other five  measures. It is referred to as the “Deprivation Index”. Rescaling and normalization were used to scale the index to a range from 0 to 1, with 1 representing the most deprivation.</t>
     </r>
@@ -5479,7 +5531,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="51">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5572,34 +5624,39 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5625,11 +5682,13 @@
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5643,6 +5702,7 @@
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -5650,12 +5710,14 @@
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5702,14 +5764,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
@@ -5786,7 +5840,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5798,6 +5852,7 @@
       <sz val="12"/>
       <color rgb="FF7030A0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -6120,7 +6175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6211,15 +6266,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6231,9 +6279,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6345,28 +6390,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6381,17 +6423,17 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6413,10 +6455,10 @@
     <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6426,25 +6468,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6460,19 +6490,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6863,77 +6888,77 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="83.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="2"/>
+    <col min="3" max="3" width="32.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="141" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="141"/>
-    </row>
-    <row r="3" spans="1:6" ht="69.95" customHeight="1">
-      <c r="A3" s="142" t="s">
+      <c r="B2" s="129"/>
+    </row>
+    <row r="3" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="142"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="141" t="s">
+      <c r="B3" s="130"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="141"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="135" t="s">
+      <c r="B5" s="129"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="136"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="135" t="s">
+      <c r="B6" s="124"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="136"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="135" t="s">
+      <c r="B7" s="124"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="136"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="135" t="s">
+      <c r="B8" s="124"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="136"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="135" t="s">
+      <c r="B9" s="124"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="136"/>
-    </row>
-    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="137" t="s">
+      <c r="B10" s="124"/>
+    </row>
+    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="138"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="B11" s="126"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="139" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="140"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="29" t="s">
         <v>10</v>
       </c>
@@ -6947,13 +6972,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>15</v>
       </c>
@@ -6970,7 +6995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>20</v>
       </c>
@@ -6987,7 +7012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>25</v>
       </c>
@@ -7004,7 +7029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>27</v>
       </c>
@@ -7021,7 +7046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>10</v>
       </c>
@@ -7038,7 +7063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>30</v>
       </c>
@@ -7058,7 +7083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30.95">
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>35</v>
       </c>
@@ -7075,13 +7100,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30.95">
+    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="30.95">
+    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>40</v>
       </c>
@@ -7092,7 +7117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30.95">
+    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>43</v>
       </c>
@@ -7100,7 +7125,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>45</v>
       </c>
@@ -7108,7 +7133,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30.95">
+    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>47</v>
       </c>
@@ -7116,13 +7141,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="46.5">
+    <row r="28" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>50</v>
       </c>
@@ -7139,7 +7164,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="62.1">
+    <row r="29" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
         <v>52</v>
       </c>
@@ -7156,7 +7181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>55</v>
       </c>
@@ -7173,7 +7198,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>58</v>
       </c>
@@ -7190,7 +7215,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30.95">
+    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>60</v>
       </c>
@@ -7207,7 +7232,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30.95">
+    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
         <v>62</v>
       </c>
@@ -7224,13 +7249,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>65</v>
       </c>
@@ -7259,273 +7284,273 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF07E5A-A186-964E-AFB2-B34FC0BB85B8}">
   <dimension ref="A1:AT70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="E14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="113"/>
-    <col min="2" max="2" width="26" style="51" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="51" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="51" customWidth="1"/>
-    <col min="5" max="7" width="24.625" style="51" customWidth="1"/>
-    <col min="8" max="8" width="70.75" style="51" customWidth="1"/>
-    <col min="9" max="9" width="33.5" style="51" customWidth="1"/>
-    <col min="10" max="10" width="31" style="51" customWidth="1"/>
-    <col min="11" max="11" width="21.25" style="51" customWidth="1"/>
-    <col min="12" max="12" width="14.875" style="51" customWidth="1"/>
-    <col min="13" max="13" width="28.875" style="51" customWidth="1"/>
-    <col min="14" max="14" width="28.5" style="51" customWidth="1"/>
-    <col min="15" max="15" width="26.125" style="51" customWidth="1"/>
-    <col min="16" max="16" width="26.125" style="94" customWidth="1"/>
-    <col min="17" max="17" width="13.375" style="51" customWidth="1"/>
-    <col min="18" max="18" width="19.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="32.125" style="95" customWidth="1"/>
-    <col min="20" max="20" width="38.875" style="89" customWidth="1"/>
-    <col min="21" max="21" width="16.625" style="51" customWidth="1"/>
-    <col min="22" max="22" width="14.25" style="94" customWidth="1"/>
-    <col min="23" max="23" width="12.625" style="51" customWidth="1"/>
-    <col min="24" max="25" width="12.625" style="94" customWidth="1"/>
-    <col min="26" max="26" width="12.375" style="51" customWidth="1"/>
-    <col min="27" max="27" width="12.5" style="51" customWidth="1"/>
-    <col min="28" max="32" width="12.5" style="94" customWidth="1"/>
-    <col min="33" max="33" width="12.5" style="96" customWidth="1"/>
-    <col min="34" max="35" width="22.625" style="51" customWidth="1"/>
-    <col min="36" max="36" width="28.875" style="51" customWidth="1"/>
-    <col min="37" max="37" width="29.875" style="51" customWidth="1"/>
-    <col min="38" max="38" width="20.5" style="51" customWidth="1"/>
-    <col min="39" max="39" width="30.375" style="95" customWidth="1"/>
-    <col min="40" max="16384" width="10.875" style="51"/>
+    <col min="1" max="1" width="10.83203125" style="108"/>
+    <col min="2" max="2" width="26" style="47" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="47" customWidth="1"/>
+    <col min="5" max="7" width="24.6640625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" style="47" customWidth="1"/>
+    <col min="9" max="9" width="33.5" style="47" customWidth="1"/>
+    <col min="10" max="10" width="31" style="47" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="47" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" style="47" customWidth="1"/>
+    <col min="13" max="13" width="28.83203125" style="47" customWidth="1"/>
+    <col min="14" max="14" width="28.5" style="47" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" style="47" customWidth="1"/>
+    <col min="16" max="16" width="26.1640625" style="89" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="47" customWidth="1"/>
+    <col min="18" max="18" width="19.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1640625" style="90" customWidth="1"/>
+    <col min="20" max="20" width="38.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" style="47" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="89" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" style="47" customWidth="1"/>
+    <col min="24" max="25" width="12.6640625" style="89" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" style="47" customWidth="1"/>
+    <col min="27" max="27" width="12.5" style="47" customWidth="1"/>
+    <col min="28" max="32" width="12.5" style="89" customWidth="1"/>
+    <col min="33" max="33" width="12.5" style="91" customWidth="1"/>
+    <col min="34" max="35" width="22.6640625" style="47" customWidth="1"/>
+    <col min="36" max="36" width="28.83203125" style="47" customWidth="1"/>
+    <col min="37" max="37" width="29.83203125" style="47" customWidth="1"/>
+    <col min="38" max="38" width="20.5" style="47" customWidth="1"/>
+    <col min="39" max="39" width="30.33203125" style="90" customWidth="1"/>
+    <col min="40" max="16384" width="10.83203125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15.95" customHeight="1">
-      <c r="K1" s="143" t="s">
+    <row r="1" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="145" t="s">
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="146"/>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="148" t="s">
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="148"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="148"/>
-      <c r="AN1" s="64" t="s">
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="136"/>
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="60" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="74" customFormat="1" ht="77.45">
-      <c r="A2" s="116" t="s">
+    <row r="2" spans="1:46" s="70" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="48" t="s">
+      <c r="P2" s="62"/>
+      <c r="Q2" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="67" t="s">
+      <c r="S2" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="68" t="s">
+      <c r="U2" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="66"/>
-      <c r="W2" s="68" t="s">
+      <c r="V2" s="62"/>
+      <c r="W2" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="68" t="s">
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="AA2" s="68" t="s">
+      <c r="AA2" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="71" t="s">
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="AI2" s="71" t="s">
+      <c r="AI2" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="AJ2" s="71" t="s">
+      <c r="AJ2" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" s="71" t="s">
+      <c r="AK2" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="AL2" s="71" t="s">
+      <c r="AL2" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="AM2" s="72" t="s">
+      <c r="AM2" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" s="73" t="s">
+      <c r="AN2" s="69" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="74" customFormat="1" ht="80.25" customHeight="1">
-      <c r="A3" s="117"/>
-      <c r="B3" s="76" t="s">
+    <row r="3" spans="1:46" s="70" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="110"/>
+      <c r="B3" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="75"/>
-      <c r="J3" s="49" t="s">
+      <c r="I3" s="71"/>
+      <c r="J3" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="74" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="69" t="s">
+      <c r="O3" s="45"/>
+      <c r="P3" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="R3" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="77" t="s">
+      <c r="S3" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49" t="s">
+      <c r="T3" s="45"/>
+      <c r="U3" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="69" t="s">
+      <c r="V3" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="69" t="s">
+      <c r="W3" s="45"/>
+      <c r="X3" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="Y3" s="69" t="s">
+      <c r="Y3" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="69" t="s">
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="AC3" s="69" t="s">
+      <c r="AC3" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="AD3" s="69" t="s">
+      <c r="AD3" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="AE3" s="69" t="s">
+      <c r="AE3" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="AF3" s="69" t="s">
+      <c r="AF3" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="AG3" s="70" t="s">
+      <c r="AG3" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="78"/>
-    </row>
-    <row r="4" spans="1:46" s="1" customFormat="1" ht="399" customHeight="1">
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="74"/>
+    </row>
+    <row r="4" spans="1:46" s="1" customFormat="1" ht="399" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -7543,13 +7568,13 @@
       <c r="G4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="102"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="1" t="s">
         <v>122</v>
       </c>
@@ -7562,7 +7587,7 @@
       <c r="N4" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="93" t="s">
         <v>126</v>
       </c>
       <c r="P4" s="11" t="s">
@@ -7574,10 +7599,10 @@
       <c r="R4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="S4" s="41" t="s">
+      <c r="S4" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="T4" s="38" t="s">
+      <c r="T4" s="35" t="s">
         <v>131</v>
       </c>
       <c r="U4" s="1" t="s">
@@ -7613,7 +7638,7 @@
       </c>
       <c r="AF4" s="11"/>
       <c r="AG4" s="13"/>
-      <c r="AH4" s="98" t="s">
+      <c r="AH4" s="93" t="s">
         <v>138</v>
       </c>
       <c r="AI4" s="9" t="s">
@@ -7635,11 +7660,11 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="5" spans="1:46" s="1" customFormat="1" ht="303" customHeight="1">
+    <row r="5" spans="1:46" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -7657,13 +7682,13 @@
       <c r="G5" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="H5" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="J5" s="102"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="1" t="s">
         <v>147</v>
       </c>
@@ -7673,10 +7698,10 @@
       <c r="M5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N5" s="97" t="s">
+      <c r="N5" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="O5" s="98" t="s">
+      <c r="O5" s="93" t="s">
         <v>150</v>
       </c>
       <c r="P5" s="11" t="s">
@@ -7688,7 +7713,7 @@
       <c r="R5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="38" t="s">
         <v>153</v>
       </c>
       <c r="T5" s="35" t="s">
@@ -7729,7 +7754,7 @@
         <v>137</v>
       </c>
       <c r="AG5" s="13"/>
-      <c r="AH5" s="98" t="s">
+      <c r="AH5" s="93" t="s">
         <v>138</v>
       </c>
       <c r="AI5" s="9" t="s">
@@ -7749,35 +7774,35 @@
         <v>45362</v>
       </c>
     </row>
-    <row r="6" spans="1:46" s="5" customFormat="1" ht="276">
-      <c r="A6" s="118" t="s">
+    <row r="6" spans="1:46" s="5" customFormat="1" ht="340" x14ac:dyDescent="0.2">
+      <c r="A6" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="9" t="s">
         <v>166</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="H6" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="J6" s="103"/>
+      <c r="J6" s="98"/>
       <c r="K6" s="1" t="s">
         <v>170</v>
       </c>
@@ -7805,7 +7830,7 @@
       <c r="S6" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="T6" s="39" t="s">
+      <c r="T6" s="35" t="s">
         <v>178</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -7843,7 +7868,7 @@
       </c>
       <c r="AF6" s="11"/>
       <c r="AG6" s="13"/>
-      <c r="AH6" s="98" t="s">
+      <c r="AH6" s="93" t="s">
         <v>187</v>
       </c>
       <c r="AI6" s="9" t="s">
@@ -7869,35 +7894,35 @@
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
     </row>
-    <row r="7" spans="1:46" s="1" customFormat="1" ht="390.75" customHeight="1">
-      <c r="A7" s="118" t="s">
+    <row r="7" spans="1:46" s="1" customFormat="1" ht="390.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="114" t="s">
+      <c r="E7" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="F7" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H7" s="119" t="s">
+      <c r="H7" s="93" t="s">
         <v>197</v>
       </c>
       <c r="I7" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="75" t="s">
         <v>199</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -7912,7 +7937,7 @@
       <c r="N7" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="O7" s="98" t="s">
+      <c r="O7" s="93" t="s">
         <v>204</v>
       </c>
       <c r="P7" s="11" t="s">
@@ -7927,7 +7952,7 @@
       <c r="S7" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="35" t="s">
         <v>207</v>
       </c>
       <c r="U7" s="1" t="s">
@@ -7961,7 +7986,7 @@
       </c>
       <c r="AF7" s="11"/>
       <c r="AG7" s="13"/>
-      <c r="AH7" s="98" t="s">
+      <c r="AH7" s="93" t="s">
         <v>214</v>
       </c>
       <c r="AI7" s="9" t="s">
@@ -7981,33 +8006,33 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="8" spans="1:46" s="1" customFormat="1" ht="200.1" customHeight="1">
-      <c r="A8" s="114" t="s">
+    <row r="8" spans="1:46" s="1" customFormat="1" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="114" t="s">
+      <c r="D8" s="9" t="s">
         <v>219</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="119" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="93" t="s">
         <v>221</v>
       </c>
       <c r="I8" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="J8" s="104"/>
+      <c r="J8" s="99"/>
       <c r="K8" s="1" t="s">
         <v>223</v>
       </c>
@@ -8035,7 +8060,7 @@
       <c r="S8" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="T8" s="124" t="s">
+      <c r="T8" s="115" t="s">
         <v>230</v>
       </c>
       <c r="U8" s="1" t="s">
@@ -8069,7 +8094,7 @@
       </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="13"/>
-      <c r="AH8" s="98" t="s">
+      <c r="AH8" s="93" t="s">
         <v>232</v>
       </c>
       <c r="AI8" s="9" t="s">
@@ -8087,33 +8112,33 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="9" spans="1:46" s="1" customFormat="1" ht="319.5" customHeight="1">
-      <c r="A9" s="118" t="s">
+    <row r="9" spans="1:46" s="1" customFormat="1" ht="319.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="114" t="s">
+      <c r="E9" s="9" t="s">
         <v>238</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="H9" s="119" t="s">
+      <c r="H9" s="93" t="s">
         <v>239</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="J9" s="102"/>
+      <c r="J9" s="97"/>
       <c r="K9" s="1" t="s">
         <v>241</v>
       </c>
@@ -8138,7 +8163,7 @@
       <c r="R9" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="S9" s="80" t="s">
+      <c r="S9" s="76" t="s">
         <v>248</v>
       </c>
       <c r="T9" s="35" t="s">
@@ -8163,10 +8188,10 @@
       <c r="AA9" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AB9" s="81" t="s">
+      <c r="AB9" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="AC9" s="81" t="s">
+      <c r="AC9" s="77" t="s">
         <v>251</v>
       </c>
       <c r="AD9" s="11" t="s">
@@ -8177,7 +8202,7 @@
       </c>
       <c r="AF9" s="11"/>
       <c r="AG9" s="13"/>
-      <c r="AH9" s="98" t="s">
+      <c r="AH9" s="93" t="s">
         <v>232</v>
       </c>
       <c r="AI9" s="9" t="s">
@@ -8199,17 +8224,17 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="10" spans="1:46" s="1" customFormat="1" ht="368.25">
-      <c r="A10" s="118" t="s">
+    <row r="10" spans="1:46" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A10" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="9" t="s">
         <v>260</v>
       </c>
       <c r="E10" s="32" t="s">
@@ -8217,13 +8242,13 @@
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="J10" s="105"/>
+      <c r="J10" s="100"/>
       <c r="K10" s="5" t="s">
         <v>264</v>
       </c>
@@ -8251,7 +8276,7 @@
       <c r="S10" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="T10" s="47" t="s">
+      <c r="T10" s="43" t="s">
         <v>270</v>
       </c>
       <c r="U10" s="1" t="s">
@@ -8285,7 +8310,7 @@
       </c>
       <c r="AF10" s="11"/>
       <c r="AG10" s="13"/>
-      <c r="AH10" s="98" t="s">
+      <c r="AH10" s="93" t="s">
         <v>273</v>
       </c>
       <c r="AI10" s="9" t="s">
@@ -8307,33 +8332,33 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="11" spans="1:46" s="5" customFormat="1" ht="356.25" customHeight="1">
-      <c r="A11" s="118" t="s">
+    <row r="11" spans="1:46" s="5" customFormat="1" ht="356.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="9" t="s">
         <v>282</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="H11" s="119" t="s">
+      <c r="H11" s="93" t="s">
         <v>283</v>
       </c>
       <c r="I11" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="J11" s="102" t="s">
+      <c r="J11" s="97" t="s">
         <v>285</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -8360,10 +8385,10 @@
       <c r="R11" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="S11" s="51" t="s">
+      <c r="S11" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="T11" s="82" t="s">
+      <c r="T11" s="78" t="s">
         <v>295</v>
       </c>
       <c r="U11" s="1" t="s">
@@ -8401,7 +8426,7 @@
       </c>
       <c r="AF11" s="11"/>
       <c r="AG11" s="13"/>
-      <c r="AH11" s="98" t="s">
+      <c r="AH11" s="93" t="s">
         <v>302</v>
       </c>
       <c r="AI11" s="9" t="s">
@@ -8427,8 +8452,8 @@
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
     </row>
-    <row r="12" spans="1:46" s="83" customFormat="1" ht="405.75" customHeight="1">
-      <c r="A12" s="118" t="s">
+    <row r="12" spans="1:46" s="79" customFormat="1" ht="405.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="108" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -8447,13 +8472,13 @@
       <c r="G12" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="H12" s="98" t="s">
+      <c r="H12" s="93" t="s">
         <v>311</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="J12" s="102" t="s">
+      <c r="J12" s="97" t="s">
         <v>313</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -8465,7 +8490,7 @@
       <c r="M12" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="N12" s="97" t="s">
+      <c r="N12" s="92" t="s">
         <v>316</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -8477,13 +8502,13 @@
       <c r="Q12" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="R12" s="84" t="s">
+      <c r="R12" s="80" t="s">
         <v>319</v>
       </c>
       <c r="S12" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="T12" s="85" t="s">
+      <c r="T12" s="81" t="s">
         <v>321</v>
       </c>
       <c r="U12" s="1" t="s">
@@ -8521,7 +8546,7 @@
         <v>137</v>
       </c>
       <c r="AG12" s="13"/>
-      <c r="AH12" s="98" t="s">
+      <c r="AH12" s="93" t="s">
         <v>327</v>
       </c>
       <c r="AI12" s="9" t="s">
@@ -8545,14 +8570,14 @@
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
     </row>
-    <row r="13" spans="1:46" s="83" customFormat="1" ht="387.75" customHeight="1">
-      <c r="A13" s="118" t="s">
+    <row r="13" spans="1:46" s="79" customFormat="1" ht="387.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="108" t="s">
         <v>113</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="9" t="s">
         <v>332</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -8561,16 +8586,16 @@
       <c r="E13" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="H13" s="98" t="s">
+      <c r="H13" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="J13" s="102" t="s">
+      <c r="J13" s="97" t="s">
         <v>336</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -8582,7 +8607,7 @@
       <c r="M13" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="N13" s="97" t="s">
+      <c r="N13" s="92" t="s">
         <v>339</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -8594,13 +8619,13 @@
       <c r="Q13" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="R13" s="84" t="s">
+      <c r="R13" s="80" t="s">
         <v>342</v>
       </c>
-      <c r="S13" s="43" t="s">
+      <c r="S13" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="T13" s="84" t="s">
+      <c r="T13" s="80" t="s">
         <v>344</v>
       </c>
       <c r="U13" s="1" t="s">
@@ -8638,7 +8663,7 @@
         <v>137</v>
       </c>
       <c r="AG13" s="13"/>
-      <c r="AH13" s="98" t="s">
+      <c r="AH13" s="93" t="s">
         <v>327</v>
       </c>
       <c r="AI13" s="9" t="s">
@@ -8662,8 +8687,8 @@
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
     </row>
-    <row r="14" spans="1:46" s="83" customFormat="1" ht="398.25">
-      <c r="A14" s="118" t="s">
+    <row r="14" spans="1:46" s="79" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A14" s="108" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -8678,16 +8703,16 @@
       <c r="E14" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="H14" s="100" t="s">
+      <c r="H14" s="95" t="s">
         <v>350</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="J14" s="102" t="s">
+      <c r="J14" s="97" t="s">
         <v>336</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -8699,7 +8724,7 @@
       <c r="M14" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="N14" s="97" t="s">
+      <c r="N14" s="92" t="s">
         <v>354</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -8711,13 +8736,13 @@
       <c r="Q14" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="R14" s="86" t="s">
+      <c r="R14" s="82" t="s">
         <v>357</v>
       </c>
-      <c r="S14" s="87" t="s">
+      <c r="S14" s="83" t="s">
         <v>358</v>
       </c>
-      <c r="T14" s="84" t="s">
+      <c r="T14" s="80" t="s">
         <v>359</v>
       </c>
       <c r="U14" s="1" t="s">
@@ -8757,7 +8782,7 @@
       <c r="AG14" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="AH14" s="98" t="s">
+      <c r="AH14" s="93" t="s">
         <v>327</v>
       </c>
       <c r="AI14" s="9" t="s">
@@ -8781,8 +8806,8 @@
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
     </row>
-    <row r="15" spans="1:46" s="83" customFormat="1" ht="402.95">
-      <c r="A15" s="118" t="s">
+    <row r="15" spans="1:46" s="79" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A15" s="108" t="s">
         <v>113</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -8791,20 +8816,20 @@
       <c r="C15" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="9" t="s">
         <v>366</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G15" s="83" t="s">
+      <c r="G15" s="79" t="s">
         <v>196</v>
       </c>
       <c r="H15" s="35"/>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="J15" s="102" t="s">
+      <c r="J15" s="97" t="s">
         <v>368</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -8816,7 +8841,7 @@
       <c r="M15" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="N15" s="97" t="s">
+      <c r="N15" s="92" t="s">
         <v>371</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -8831,10 +8856,10 @@
       <c r="R15" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="S15" s="87" t="s">
+      <c r="S15" s="83" t="s">
         <v>376</v>
       </c>
-      <c r="T15" s="84" t="s">
+      <c r="T15" s="80" t="s">
         <v>377</v>
       </c>
       <c r="U15" s="1" t="s">
@@ -8872,7 +8897,7 @@
       <c r="AG15" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="AH15" s="100" t="s">
+      <c r="AH15" s="95" t="s">
         <v>327</v>
       </c>
       <c r="AI15" s="9" t="s">
@@ -8896,31 +8921,31 @@
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
     </row>
-    <row r="16" spans="1:46" s="5" customFormat="1" ht="246" customHeight="1">
-      <c r="A16" s="118" t="s">
+    <row r="16" spans="1:46" s="5" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E16" s="114" t="s">
+      <c r="E16" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="G16" s="114"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="40" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="J16" s="106" t="s">
+      <c r="J16" s="101" t="s">
         <v>387</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -8932,7 +8957,7 @@
       <c r="M16" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="N16" s="97" t="s">
+      <c r="N16" s="92" t="s">
         <v>389</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -8944,13 +8969,13 @@
       <c r="Q16" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="R16" s="88" t="s">
+      <c r="R16" s="84" t="s">
         <v>393</v>
       </c>
-      <c r="S16" s="43" t="s">
+      <c r="S16" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="T16" s="86" t="s">
+      <c r="T16" s="82" t="s">
         <v>395</v>
       </c>
       <c r="U16" s="1" t="s">
@@ -9014,31 +9039,31 @@
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
     </row>
-    <row r="17" spans="1:46" s="5" customFormat="1" ht="240.95" customHeight="1">
-      <c r="A17" s="118" t="s">
+    <row r="17" spans="1:46" s="5" customFormat="1" ht="241" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="32" t="s">
         <v>261</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="J17" s="108" t="s">
+      <c r="J17" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -9050,7 +9075,7 @@
       <c r="M17" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="N17" s="97" t="s">
+      <c r="N17" s="92" t="s">
         <v>411</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -9065,10 +9090,10 @@
       <c r="R17" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="S17" s="43" t="s">
+      <c r="S17" s="40" t="s">
         <v>415</v>
       </c>
-      <c r="T17" s="86" t="s">
+      <c r="T17" s="82" t="s">
         <v>416</v>
       </c>
       <c r="U17" s="1" t="s">
@@ -9134,29 +9159,29 @@
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
     </row>
-    <row r="18" spans="1:46" s="1" customFormat="1" ht="297.95" customHeight="1">
-      <c r="A18" s="118" t="s">
+    <row r="18" spans="1:46" s="1" customFormat="1" ht="298" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="108" t="s">
         <v>428</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="108" t="s">
         <v>429</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="E18" s="114" t="s">
+      <c r="E18" s="9" t="s">
         <v>261</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="40" t="s">
+      <c r="H18" s="35"/>
+      <c r="I18" s="37" t="s">
         <v>431</v>
       </c>
-      <c r="J18" s="102" t="s">
+      <c r="J18" s="97" t="s">
         <v>432</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -9168,7 +9193,7 @@
       <c r="M18" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="N18" s="97" t="s">
+      <c r="N18" s="92" t="s">
         <v>435</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -9183,10 +9208,10 @@
       <c r="R18" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="S18" s="43" t="s">
+      <c r="S18" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="T18" s="123" t="s">
+      <c r="T18" s="114" t="s">
         <v>440</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -9244,17 +9269,17 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="19" spans="1:46" s="83" customFormat="1" ht="379.5" customHeight="1">
-      <c r="A19" s="118" t="s">
+    <row r="19" spans="1:46" s="79" customFormat="1" ht="379.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="108" t="s">
         <v>453</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="108" t="s">
         <v>454</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="108" t="s">
         <v>455</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -9264,7 +9289,7 @@
       <c r="I19" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="J19" s="107" t="s">
+      <c r="J19" s="102" t="s">
         <v>458</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -9276,7 +9301,7 @@
       <c r="M19" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="N19" s="97" t="s">
+      <c r="N19" s="92" t="s">
         <v>461</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -9291,10 +9316,10 @@
       <c r="R19" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="S19" s="43" t="s">
+      <c r="S19" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="T19" s="122" t="s">
+      <c r="T19" s="113" t="s">
         <v>466</v>
       </c>
       <c r="U19" s="1" t="s">
@@ -9358,20 +9383,20 @@
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
     </row>
-    <row r="20" spans="1:46" s="83" customFormat="1" ht="409.5">
-      <c r="A20" s="118" t="s">
+    <row r="20" spans="1:46" s="79" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A20" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="9" t="s">
         <v>478</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -9379,10 +9404,10 @@
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="35"/>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="J20" s="102" t="s">
+      <c r="J20" s="97" t="s">
         <v>481</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -9394,7 +9419,7 @@
       <c r="M20" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="N20" s="97" t="s">
+      <c r="N20" s="92" t="s">
         <v>484</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -9409,10 +9434,10 @@
       <c r="R20" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="S20" s="43" t="s">
+      <c r="S20" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="T20" s="86" t="s">
+      <c r="T20" s="82" t="s">
         <v>489</v>
       </c>
       <c r="U20" s="1" t="s">
@@ -9472,27 +9497,27 @@
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
     </row>
-    <row r="21" spans="1:46" s="1" customFormat="1" ht="320.25" customHeight="1">
-      <c r="A21" s="118" t="s">
+    <row r="21" spans="1:46" s="1" customFormat="1" ht="320.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="C21" s="114" t="s">
+      <c r="C21" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="D21" s="114" t="s">
+      <c r="D21" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="E21" s="115" t="s">
+      <c r="E21" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38" t="s">
+      <c r="H21" s="35"/>
+      <c r="I21" s="35" t="s">
         <v>499</v>
       </c>
-      <c r="J21" s="102" t="s">
+      <c r="J21" s="97" t="s">
         <v>500</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -9519,10 +9544,10 @@
       <c r="R21" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="S21" s="43" t="s">
+      <c r="S21" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="T21" s="86" t="s">
+      <c r="T21" s="82" t="s">
         <v>506</v>
       </c>
       <c r="U21" s="1" t="s">
@@ -9578,29 +9603,29 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="22" spans="1:46" s="90" customFormat="1" ht="263.45">
-      <c r="A22" s="118" t="s">
+    <row r="22" spans="1:46" s="85" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A22" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="32" t="s">
         <v>238</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38" t="s">
+      <c r="H22" s="35"/>
+      <c r="I22" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="J22" s="102" t="s">
+      <c r="J22" s="97" t="s">
         <v>518</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -9627,10 +9652,10 @@
       <c r="R22" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="S22" s="43" t="s">
+      <c r="S22" s="40" t="s">
         <v>527</v>
       </c>
-      <c r="T22" s="86" t="s">
+      <c r="T22" s="82" t="s">
         <v>528</v>
       </c>
       <c r="U22" s="1" t="s">
@@ -9694,31 +9719,31 @@
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
     </row>
-    <row r="23" spans="1:46" s="1" customFormat="1" ht="302.25" customHeight="1">
-      <c r="A23" s="118" t="s">
+    <row r="23" spans="1:46" s="1" customFormat="1" ht="302.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="9" t="s">
         <v>541</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="114" t="s">
+      <c r="F23" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="G23" s="114"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="J23" s="102" t="s">
+      <c r="J23" s="97" t="s">
         <v>544</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -9745,10 +9770,10 @@
       <c r="R23" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="S23" s="43" t="s">
+      <c r="S23" s="40" t="s">
         <v>553</v>
       </c>
-      <c r="T23" s="86" t="s">
+      <c r="T23" s="82" t="s">
         <v>554</v>
       </c>
       <c r="U23" s="1" t="s">
@@ -9806,31 +9831,31 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="24" spans="1:46" s="1" customFormat="1" ht="254.1" customHeight="1">
-      <c r="A24" s="118" t="s">
+    <row r="24" spans="1:46" s="1" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="9" t="s">
         <v>567</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="114" t="s">
+      <c r="F24" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="G24" s="114"/>
-      <c r="H24" s="38"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="J24" s="102" t="s">
+      <c r="J24" s="97" t="s">
         <v>569</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -9857,10 +9882,10 @@
       <c r="R24" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="S24" s="43" t="s">
+      <c r="S24" s="40" t="s">
         <v>553</v>
       </c>
-      <c r="T24" s="38" t="s">
+      <c r="T24" s="35" t="s">
         <v>576</v>
       </c>
       <c r="U24" s="1" t="s">
@@ -9918,31 +9943,31 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="25" spans="1:46" s="1" customFormat="1" ht="248.1">
-      <c r="A25" s="118" t="s">
+    <row r="25" spans="1:46" s="1" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+      <c r="A25" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="9" t="s">
         <v>581</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="114" t="s">
+      <c r="F25" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="G25" s="114"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="44" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="J25" s="102" t="s">
+      <c r="J25" s="97" t="s">
         <v>583</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -9969,10 +9994,10 @@
       <c r="R25" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="S25" s="43" t="s">
+      <c r="S25" s="40" t="s">
         <v>553</v>
       </c>
-      <c r="T25" s="38" t="s">
+      <c r="T25" s="35" t="s">
         <v>576</v>
       </c>
       <c r="U25" s="1" t="s">
@@ -10030,29 +10055,29 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="26" spans="1:46" s="90" customFormat="1" ht="330" customHeight="1">
-      <c r="A26" s="118" t="s">
+    <row r="26" spans="1:46" s="85" customFormat="1" ht="330" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="C26" s="114" t="s">
+      <c r="C26" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="E26" s="114" t="s">
+      <c r="E26" s="9" t="s">
         <v>597</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38" t="s">
+      <c r="H26" s="35"/>
+      <c r="I26" s="35" t="s">
         <v>598</v>
       </c>
-      <c r="J26" s="102"/>
+      <c r="J26" s="97"/>
       <c r="K26" s="1" t="s">
         <v>599</v>
       </c>
@@ -10077,7 +10102,7 @@
       <c r="R26" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="S26" s="43" t="s">
+      <c r="S26" s="40" t="s">
         <v>607</v>
       </c>
       <c r="T26" s="35" t="s">
@@ -10146,31 +10171,31 @@
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
     </row>
-    <row r="27" spans="1:46" s="1" customFormat="1" ht="232.5">
-      <c r="A27" s="118" t="s">
+    <row r="27" spans="1:46" s="1" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A27" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="9" t="s">
         <v>621</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="114" t="s">
+      <c r="F27" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="G27" s="114"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="J27" s="108" t="s">
+      <c r="J27" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -10197,10 +10222,10 @@
       <c r="R27" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="S27" s="45" t="s">
+      <c r="S27" s="41" t="s">
         <v>631</v>
       </c>
-      <c r="T27" s="38" t="s">
+      <c r="T27" s="35" t="s">
         <v>632</v>
       </c>
       <c r="U27" s="1" t="s">
@@ -10256,28 +10281,28 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="28" spans="1:46" s="83" customFormat="1" ht="248.1">
-      <c r="A28" s="118" t="s">
+    <row r="28" spans="1:46" s="79" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A28" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="D28" s="114" t="s">
+      <c r="D28" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="E28" s="114" t="s">
+      <c r="E28" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38" t="s">
+      <c r="H28" s="35"/>
+      <c r="I28" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="J28" s="102"/>
-      <c r="K28" s="46" t="s">
+      <c r="J28" s="97"/>
+      <c r="K28" s="42" t="s">
         <v>644</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -10301,7 +10326,7 @@
       <c r="R28" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="S28" s="43" t="s">
+      <c r="S28" s="40" t="s">
         <v>651</v>
       </c>
       <c r="T28" s="35" t="s">
@@ -10364,29 +10389,29 @@
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
     </row>
-    <row r="29" spans="1:46" s="90" customFormat="1" ht="201.6">
-      <c r="A29" s="118" t="s">
+    <row r="29" spans="1:46" s="85" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A29" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="C29" s="114" t="s">
+      <c r="C29" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="D29" s="114" t="s">
+      <c r="D29" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="E29" s="114" t="s">
+      <c r="E29" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38" t="s">
+      <c r="H29" s="35"/>
+      <c r="I29" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="J29" s="108" t="s">
+      <c r="J29" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -10416,7 +10441,7 @@
       <c r="S29" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="T29" s="38" t="s">
+      <c r="T29" s="35" t="s">
         <v>666</v>
       </c>
       <c r="U29" s="1" t="s">
@@ -10480,29 +10505,29 @@
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
     </row>
-    <row r="30" spans="1:46" s="90" customFormat="1" ht="170.45">
-      <c r="A30" s="118" t="s">
+    <row r="30" spans="1:46" s="85" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A30" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="C30" s="114" t="s">
+      <c r="C30" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="D30" s="114" t="s">
+      <c r="D30" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="E30" s="114" t="s">
+      <c r="E30" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="35" t="s">
         <v>676</v>
       </c>
-      <c r="J30" s="108" t="s">
+      <c r="J30" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -10529,7 +10554,7 @@
       <c r="R30" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="S30" s="43" t="s">
+      <c r="S30" s="40" t="s">
         <v>682</v>
       </c>
       <c r="T30" s="35" t="s">
@@ -10590,29 +10615,29 @@
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
     </row>
-    <row r="31" spans="1:46" s="90" customFormat="1" ht="216" customHeight="1">
-      <c r="A31" s="118" t="s">
+    <row r="31" spans="1:46" s="85" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="E31" s="114" t="s">
+      <c r="E31" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38" t="s">
+      <c r="H31" s="35"/>
+      <c r="I31" s="35" t="s">
         <v>688</v>
       </c>
-      <c r="J31" s="108" t="s">
+      <c r="J31" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -10639,10 +10664,10 @@
       <c r="R31" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="S31" s="43" t="s">
+      <c r="S31" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="T31" s="38" t="s">
+      <c r="T31" s="35" t="s">
         <v>696</v>
       </c>
       <c r="U31" s="1" t="s">
@@ -10700,29 +10725,29 @@
       <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
     </row>
-    <row r="32" spans="1:46" s="1" customFormat="1" ht="218.1" customHeight="1">
-      <c r="A32" s="118" t="s">
+    <row r="32" spans="1:46" s="1" customFormat="1" ht="218" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="C32" s="114" t="s">
+      <c r="C32" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="D32" s="114" t="s">
+      <c r="D32" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="E32" s="114" t="s">
+      <c r="E32" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38" t="s">
+      <c r="H32" s="35"/>
+      <c r="I32" s="35" t="s">
         <v>701</v>
       </c>
-      <c r="J32" s="108" t="s">
+      <c r="J32" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -10749,10 +10774,10 @@
       <c r="R32" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="S32" s="43" t="s">
+      <c r="S32" s="40" t="s">
         <v>708</v>
       </c>
-      <c r="T32" s="38" t="s">
+      <c r="T32" s="35" t="s">
         <v>709</v>
       </c>
       <c r="U32" s="1" t="s">
@@ -10804,29 +10829,29 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="33" spans="1:46" s="1" customFormat="1" ht="351.75" customHeight="1">
-      <c r="A33" s="118" t="s">
+    <row r="33" spans="1:46" s="1" customFormat="1" ht="351.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="C33" s="114" t="s">
+      <c r="C33" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="D33" s="114" t="s">
+      <c r="D33" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="E33" s="114" t="s">
+      <c r="E33" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38" t="s">
+      <c r="H33" s="35"/>
+      <c r="I33" s="35" t="s">
         <v>716</v>
       </c>
-      <c r="J33" s="102" t="s">
+      <c r="J33" s="97" t="s">
         <v>717</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -10853,7 +10878,7 @@
       <c r="R33" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="S33" s="43" t="s">
+      <c r="S33" s="40" t="s">
         <v>725</v>
       </c>
       <c r="T33" s="35" t="s">
@@ -10912,29 +10937,29 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="34" spans="1:46" s="90" customFormat="1" ht="295.5" customHeight="1">
-      <c r="A34" s="118" t="s">
+    <row r="34" spans="1:46" s="85" customFormat="1" ht="295.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="C34" s="114" t="s">
+      <c r="C34" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="D34" s="114" t="s">
+      <c r="D34" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="E34" s="114" t="s">
+      <c r="E34" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38" t="s">
+      <c r="H34" s="35"/>
+      <c r="I34" s="35" t="s">
         <v>735</v>
       </c>
-      <c r="J34" s="108"/>
+      <c r="J34" s="103"/>
       <c r="K34" s="1" t="s">
         <v>736</v>
       </c>
@@ -10959,7 +10984,7 @@
       <c r="R34" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="S34" s="43" t="s">
+      <c r="S34" s="40" t="s">
         <v>741</v>
       </c>
       <c r="T34" s="35" t="s">
@@ -11026,29 +11051,29 @@
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
     </row>
-    <row r="35" spans="1:46" s="1" customFormat="1" ht="338.25" customHeight="1">
-      <c r="A35" s="118" t="s">
+    <row r="35" spans="1:46" s="1" customFormat="1" ht="338.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="C35" s="114" t="s">
+      <c r="C35" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="D35" s="114" t="s">
+      <c r="D35" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="E35" s="114" t="s">
+      <c r="E35" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38" t="s">
+      <c r="H35" s="35"/>
+      <c r="I35" s="35" t="s">
         <v>751</v>
       </c>
-      <c r="J35" s="108" t="s">
+      <c r="J35" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -11075,7 +11100,7 @@
       <c r="R35" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="S35" s="43" t="s">
+      <c r="S35" s="40" t="s">
         <v>758</v>
       </c>
       <c r="T35" s="35" t="s">
@@ -11136,29 +11161,29 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="36" spans="1:46" s="1" customFormat="1" ht="409.5" customHeight="1">
-      <c r="A36" s="118" t="s">
+    <row r="36" spans="1:46" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="C36" s="114" t="s">
+      <c r="C36" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="D36" s="114" t="s">
+      <c r="D36" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="E36" s="114" t="s">
+      <c r="E36" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="35"/>
+      <c r="I36" s="35" t="s">
         <v>765</v>
       </c>
-      <c r="J36" s="108" t="s">
+      <c r="J36" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -11185,7 +11210,7 @@
       <c r="R36" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="S36" s="43" t="s">
+      <c r="S36" s="40" t="s">
         <v>772</v>
       </c>
       <c r="T36" s="35" t="s">
@@ -11246,29 +11271,29 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="37" spans="1:46" s="1" customFormat="1" ht="372" customHeight="1">
-      <c r="A37" s="118" t="s">
+    <row r="37" spans="1:46" s="1" customFormat="1" ht="372" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="114" t="s">
+      <c r="B37" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="C37" s="114" t="s">
+      <c r="C37" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="D37" s="114" t="s">
+      <c r="D37" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="E37" s="114" t="s">
+      <c r="E37" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38" t="s">
+      <c r="H37" s="35"/>
+      <c r="I37" s="35" t="s">
         <v>778</v>
       </c>
-      <c r="J37" s="108" t="s">
+      <c r="J37" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -11292,10 +11317,10 @@
       <c r="Q37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R37" s="91" t="s">
+      <c r="R37" s="86" t="s">
         <v>783</v>
       </c>
-      <c r="S37" s="43" t="s">
+      <c r="S37" s="40" t="s">
         <v>784</v>
       </c>
       <c r="T37" s="35" t="s">
@@ -11356,29 +11381,29 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="38" spans="1:46" s="1" customFormat="1" ht="387.95" customHeight="1">
-      <c r="A38" s="118" t="s">
+    <row r="38" spans="1:46" s="1" customFormat="1" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="114" t="s">
+      <c r="B38" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="C38" s="114" t="s">
+      <c r="C38" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="D38" s="114" t="s">
+      <c r="D38" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="E38" s="114" t="s">
+      <c r="E38" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38" t="s">
+      <c r="H38" s="35"/>
+      <c r="I38" s="35" t="s">
         <v>789</v>
       </c>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -11405,7 +11430,7 @@
       <c r="R38" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="S38" s="43" t="s">
+      <c r="S38" s="40" t="s">
         <v>795</v>
       </c>
       <c r="T38" s="35" t="s">
@@ -11466,29 +11491,29 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="39" spans="1:46" s="1" customFormat="1" ht="404.1" customHeight="1">
-      <c r="A39" s="118" t="s">
+    <row r="39" spans="1:46" s="1" customFormat="1" ht="404" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="C39" s="114" t="s">
+      <c r="C39" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="D39" s="114" t="s">
+      <c r="D39" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="E39" s="114" t="s">
+      <c r="E39" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38" t="s">
+      <c r="H39" s="35"/>
+      <c r="I39" s="35" t="s">
         <v>802</v>
       </c>
-      <c r="J39" s="108" t="s">
+      <c r="J39" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -11515,7 +11540,7 @@
       <c r="R39" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="S39" s="43" t="s">
+      <c r="S39" s="40" t="s">
         <v>809</v>
       </c>
       <c r="T39" s="35" t="s">
@@ -11576,29 +11601,29 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="40" spans="1:46" s="1" customFormat="1" ht="387.95" customHeight="1">
-      <c r="A40" s="118" t="s">
+    <row r="40" spans="1:46" s="1" customFormat="1" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="C40" s="114" t="s">
+      <c r="C40" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="D40" s="114" t="s">
+      <c r="D40" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="E40" s="114" t="s">
+      <c r="E40" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38" t="s">
+      <c r="H40" s="35"/>
+      <c r="I40" s="35" t="s">
         <v>813</v>
       </c>
-      <c r="J40" s="108" t="s">
+      <c r="J40" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -11625,7 +11650,7 @@
       <c r="R40" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="S40" s="43" t="s">
+      <c r="S40" s="40" t="s">
         <v>820</v>
       </c>
       <c r="T40" s="35" t="s">
@@ -11684,29 +11709,29 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="41" spans="1:46" s="1" customFormat="1" ht="387.95" customHeight="1">
-      <c r="A41" s="118" t="s">
+    <row r="41" spans="1:46" s="1" customFormat="1" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="114" t="s">
+      <c r="B41" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="C41" s="114" t="s">
+      <c r="C41" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="D41" s="114" t="s">
+      <c r="D41" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="E41" s="114" t="s">
+      <c r="E41" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38" t="s">
+      <c r="H41" s="35"/>
+      <c r="I41" s="35" t="s">
         <v>825</v>
       </c>
-      <c r="J41" s="108" t="s">
+      <c r="J41" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -11721,19 +11746,19 @@
       <c r="N41" s="32" t="s">
         <v>829</v>
       </c>
-      <c r="O41" s="50" t="s">
+      <c r="O41" s="46" t="s">
         <v>830</v>
       </c>
-      <c r="P41" s="50" t="s">
+      <c r="P41" s="46" t="s">
         <v>831</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R41" s="84" t="s">
+      <c r="R41" s="80" t="s">
         <v>832</v>
       </c>
-      <c r="S41" s="43" t="s">
+      <c r="S41" s="40" t="s">
         <v>833</v>
       </c>
       <c r="T41" s="35" t="s">
@@ -11792,29 +11817,29 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="42" spans="1:46" s="1" customFormat="1" ht="345" customHeight="1">
-      <c r="A42" s="118" t="s">
+    <row r="42" spans="1:46" s="1" customFormat="1" ht="345" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="C42" s="114" t="s">
+      <c r="C42" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="D42" s="114" t="s">
+      <c r="D42" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="E42" s="114" t="s">
+      <c r="E42" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38" t="s">
+      <c r="H42" s="35"/>
+      <c r="I42" s="35" t="s">
         <v>838</v>
       </c>
-      <c r="J42" s="108" t="s">
+      <c r="J42" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K42" s="1" t="s">
@@ -11838,10 +11863,10 @@
       <c r="Q42" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R42" s="84" t="s">
+      <c r="R42" s="80" t="s">
         <v>844</v>
       </c>
-      <c r="S42" s="43" t="s">
+      <c r="S42" s="40" t="s">
         <v>845</v>
       </c>
       <c r="T42" s="35" t="s">
@@ -11900,17 +11925,17 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="43" spans="1:46" s="1" customFormat="1" ht="387.95" customHeight="1">
-      <c r="A43" s="118" t="s">
+    <row r="43" spans="1:46" s="1" customFormat="1" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="114" t="s">
+      <c r="B43" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="C43" s="114" t="s">
+      <c r="C43" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="D43" s="114" t="s">
+      <c r="D43" s="9" t="s">
         <v>734</v>
       </c>
       <c r="E43" s="9" t="s">
@@ -11919,10 +11944,10 @@
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
       <c r="H43" s="35"/>
-      <c r="I43" s="38" t="s">
+      <c r="I43" s="35" t="s">
         <v>851</v>
       </c>
-      <c r="J43" s="108" t="s">
+      <c r="J43" s="103" t="s">
         <v>409</v>
       </c>
       <c r="K43" s="1" t="s">
@@ -11949,7 +11974,7 @@
       <c r="R43" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="S43" s="43" t="s">
+      <c r="S43" s="40" t="s">
         <v>858</v>
       </c>
       <c r="T43" s="35" t="s">
@@ -12008,31 +12033,31 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="44" spans="1:46" s="83" customFormat="1" ht="279">
-      <c r="A44" s="118" t="s">
+    <row r="44" spans="1:46" s="79" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+      <c r="A44" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="108" t="s">
         <v>860</v>
       </c>
-      <c r="C44" s="114" t="s">
+      <c r="C44" s="9" t="s">
         <v>861</v>
       </c>
-      <c r="D44" s="114" t="s">
+      <c r="D44" s="9" t="s">
         <v>862</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="114" t="s">
+      <c r="F44" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="G44" s="114"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38" t="s">
+      <c r="G44" s="9"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35" t="s">
         <v>864</v>
       </c>
-      <c r="J44" s="102"/>
+      <c r="J44" s="97"/>
       <c r="K44" s="1" t="s">
         <v>865</v>
       </c>
@@ -12057,7 +12082,7 @@
       <c r="R44" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="S44" s="43" t="s">
+      <c r="S44" s="40" t="s">
         <v>871</v>
       </c>
       <c r="T44" s="35" t="s">
@@ -12120,17 +12145,17 @@
       <c r="AS44" s="1"/>
       <c r="AT44" s="1"/>
     </row>
-    <row r="45" spans="1:46" s="1" customFormat="1" ht="222" customHeight="1">
-      <c r="A45" s="118" t="s">
+    <row r="45" spans="1:46" s="1" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="C45" s="114" t="s">
+      <c r="C45" s="9" t="s">
         <v>876</v>
       </c>
-      <c r="D45" s="114" t="s">
+      <c r="D45" s="9" t="s">
         <v>877</v>
       </c>
       <c r="E45" s="9" t="s">
@@ -12139,10 +12164,10 @@
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
       <c r="H45" s="35"/>
-      <c r="I45" s="38" t="s">
+      <c r="I45" s="35" t="s">
         <v>878</v>
       </c>
-      <c r="J45" s="102"/>
+      <c r="J45" s="97"/>
       <c r="K45" s="1" t="s">
         <v>879</v>
       </c>
@@ -12167,10 +12192,10 @@
       <c r="R45" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="S45" s="43" t="s">
+      <c r="S45" s="40" t="s">
         <v>887</v>
       </c>
-      <c r="T45" s="38" t="s">
+      <c r="T45" s="35" t="s">
         <v>886</v>
       </c>
       <c r="U45" s="1" t="s">
@@ -12230,29 +12255,29 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="46" spans="1:46" s="5" customFormat="1" ht="201.6">
-      <c r="A46" s="118" t="s">
+    <row r="46" spans="1:46" s="5" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A46" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="114" t="s">
+      <c r="B46" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="C46" s="114" t="s">
+      <c r="C46" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="D46" s="114" t="s">
+      <c r="D46" s="9" t="s">
         <v>898</v>
       </c>
-      <c r="E46" s="114" t="s">
+      <c r="E46" s="9" t="s">
         <v>899</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38" t="s">
+      <c r="H46" s="35"/>
+      <c r="I46" s="35" t="s">
         <v>900</v>
       </c>
-      <c r="J46" s="102"/>
+      <c r="J46" s="97"/>
       <c r="K46" s="1" t="s">
         <v>901</v>
       </c>
@@ -12277,7 +12302,7 @@
       <c r="R46" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="S46" s="43" t="s">
+      <c r="S46" s="40" t="s">
         <v>909</v>
       </c>
       <c r="T46" s="35" t="s">
@@ -12342,29 +12367,29 @@
       <c r="AS46" s="1"/>
       <c r="AT46" s="1"/>
     </row>
-    <row r="47" spans="1:46" s="1" customFormat="1" ht="264" customHeight="1">
-      <c r="A47" s="118" t="s">
+    <row r="47" spans="1:46" s="1" customFormat="1" ht="264" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="108" t="s">
         <v>915</v>
       </c>
-      <c r="C47" s="114" t="s">
+      <c r="C47" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="D47" s="114" t="s">
+      <c r="D47" s="9" t="s">
         <v>917</v>
       </c>
-      <c r="E47" s="114" t="s">
+      <c r="E47" s="9" t="s">
         <v>657</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38" t="s">
+      <c r="H47" s="35"/>
+      <c r="I47" s="35" t="s">
         <v>918</v>
       </c>
-      <c r="J47" s="102"/>
+      <c r="J47" s="97"/>
       <c r="K47" s="1" t="s">
         <v>919</v>
       </c>
@@ -12389,7 +12414,7 @@
       <c r="R47" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="S47" s="43" t="s">
+      <c r="S47" s="40" t="s">
         <v>925</v>
       </c>
       <c r="T47" s="35" t="s">
@@ -12448,31 +12473,31 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="48" spans="1:46" s="90" customFormat="1" ht="323.10000000000002" customHeight="1">
-      <c r="A48" s="118" t="s">
+    <row r="48" spans="1:46" s="85" customFormat="1" ht="323" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="9" t="s">
         <v>933</v>
       </c>
-      <c r="C48" s="114" t="s">
+      <c r="C48" s="9" t="s">
         <v>934</v>
       </c>
-      <c r="D48" s="114" t="s">
+      <c r="D48" s="9" t="s">
         <v>935</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="114" t="s">
+      <c r="F48" s="9" t="s">
         <v>936</v>
       </c>
-      <c r="G48" s="114"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38" t="s">
+      <c r="G48" s="9"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35" t="s">
         <v>937</v>
       </c>
-      <c r="J48" s="102"/>
+      <c r="J48" s="97"/>
       <c r="K48" s="1" t="s">
         <v>938</v>
       </c>
@@ -12562,29 +12587,29 @@
       <c r="AS48" s="1"/>
       <c r="AT48" s="1"/>
     </row>
-    <row r="49" spans="1:46" s="1" customFormat="1" ht="263.45">
-      <c r="A49" s="118" t="s">
+    <row r="49" spans="1:46" s="1" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+      <c r="A49" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="114" t="s">
+      <c r="B49" s="9" t="s">
         <v>955</v>
       </c>
-      <c r="C49" s="114" t="s">
+      <c r="C49" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="D49" s="114" t="s">
+      <c r="D49" s="9" t="s">
         <v>957</v>
       </c>
-      <c r="E49" s="114" t="s">
+      <c r="E49" s="9" t="s">
         <v>642</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="34"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38" t="s">
+      <c r="H49" s="35"/>
+      <c r="I49" s="35" t="s">
         <v>958</v>
       </c>
-      <c r="J49" s="102" t="s">
+      <c r="J49" s="97" t="s">
         <v>959</v>
       </c>
       <c r="K49" s="1" t="s">
@@ -12611,7 +12636,7 @@
       <c r="R49" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="S49" s="43" t="s">
+      <c r="S49" s="40" t="s">
         <v>968</v>
       </c>
       <c r="T49" s="35" t="s">
@@ -12674,17 +12699,17 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="50" spans="1:46" s="1" customFormat="1" ht="372">
-      <c r="A50" s="118" t="s">
+    <row r="50" spans="1:46" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A50" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="114" t="s">
+      <c r="B50" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="C50" s="114" t="s">
+      <c r="C50" s="9" t="s">
         <v>977</v>
       </c>
-      <c r="D50" s="114" t="s">
+      <c r="D50" s="9" t="s">
         <v>978</v>
       </c>
       <c r="E50" s="32" t="s">
@@ -12692,11 +12717,11 @@
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38" t="s">
+      <c r="H50" s="35"/>
+      <c r="I50" s="35" t="s">
         <v>979</v>
       </c>
-      <c r="J50" s="102" t="s">
+      <c r="J50" s="97" t="s">
         <v>980</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -12723,10 +12748,10 @@
       <c r="R50" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="S50" s="43" t="s">
+      <c r="S50" s="40" t="s">
         <v>987</v>
       </c>
-      <c r="T50" s="92" t="s">
+      <c r="T50" s="87" t="s">
         <v>988</v>
       </c>
       <c r="U50" s="1" t="s">
@@ -12786,17 +12811,17 @@
         <v>45362</v>
       </c>
     </row>
-    <row r="51" spans="1:46" s="1" customFormat="1" ht="306" customHeight="1">
-      <c r="A51" s="118" t="s">
+    <row r="51" spans="1:46" s="1" customFormat="1" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="114" t="s">
+      <c r="B51" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="C51" s="114" t="s">
+      <c r="C51" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="D51" s="114" t="s">
+      <c r="D51" s="9" t="s">
         <v>995</v>
       </c>
       <c r="E51" s="32" t="s">
@@ -12804,11 +12829,11 @@
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38" t="s">
+      <c r="H51" s="35"/>
+      <c r="I51" s="35" t="s">
         <v>996</v>
       </c>
-      <c r="J51" s="102"/>
+      <c r="J51" s="97"/>
       <c r="K51" s="1" t="s">
         <v>997</v>
       </c>
@@ -12833,7 +12858,7 @@
       <c r="R51" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="S51" s="43" t="s">
+      <c r="S51" s="40" t="s">
         <v>1002</v>
       </c>
       <c r="T51" s="35" t="s">
@@ -12894,14 +12919,14 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="52" spans="1:46" s="1" customFormat="1" ht="248.1">
-      <c r="A52" s="118" t="s">
+    <row r="52" spans="1:46" s="1" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+      <c r="A52" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="114" t="s">
+      <c r="B52" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="C52" s="114" t="s">
+      <c r="C52" s="9" t="s">
         <v>1010</v>
       </c>
       <c r="D52" s="9" t="s">
@@ -12910,15 +12935,15 @@
       <c r="E52" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F52" s="114" t="s">
+      <c r="F52" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="G52" s="114"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38" t="s">
+      <c r="G52" s="9"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35" t="s">
         <v>1013</v>
       </c>
-      <c r="J52" s="102"/>
+      <c r="J52" s="97"/>
       <c r="K52" s="1" t="s">
         <v>1014</v>
       </c>
@@ -12943,10 +12968,10 @@
       <c r="R52" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="S52" s="43" t="s">
+      <c r="S52" s="40" t="s">
         <v>1022</v>
       </c>
-      <c r="T52" s="37" t="s">
+      <c r="T52" s="36" t="s">
         <v>1023</v>
       </c>
       <c r="U52" s="1" t="s">
@@ -12968,10 +12993,10 @@
       <c r="AA52" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AB52" s="81" t="s">
+      <c r="AB52" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="AC52" s="81" t="s">
+      <c r="AC52" s="77" t="s">
         <v>251</v>
       </c>
       <c r="AD52" s="11" t="s">
@@ -13004,31 +13029,31 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="53" spans="1:46" s="1" customFormat="1" ht="216.95">
-      <c r="A53" s="118" t="s">
+    <row r="53" spans="1:46" s="1" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A53" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="114" t="s">
+      <c r="B53" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="C53" s="114" t="s">
+      <c r="C53" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="D53" s="114" t="s">
+      <c r="D53" s="9" t="s">
         <v>1034</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="114" t="s">
+      <c r="F53" s="9" t="s">
         <v>1035</v>
       </c>
-      <c r="G53" s="114"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35" t="s">
         <v>1036</v>
       </c>
-      <c r="J53" s="102"/>
+      <c r="J53" s="97"/>
       <c r="K53" s="1" t="s">
         <v>1037</v>
       </c>
@@ -13053,7 +13078,7 @@
       <c r="R53" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="S53" s="43" t="s">
+      <c r="S53" s="40" t="s">
         <v>1041</v>
       </c>
       <c r="T53" s="35" t="s">
@@ -13109,36 +13134,36 @@
       <c r="AL53" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="AM53" s="121"/>
+      <c r="AM53" s="112"/>
       <c r="AN53" s="6">
         <v>45352</v>
       </c>
     </row>
-    <row r="54" spans="1:46" s="83" customFormat="1" ht="263.45">
-      <c r="A54" s="118" t="s">
+    <row r="54" spans="1:46" s="79" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A54" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="113" t="s">
+      <c r="B54" s="108" t="s">
         <v>1048</v>
       </c>
-      <c r="C54" s="114" t="s">
+      <c r="C54" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="D54" s="114" t="s">
+      <c r="D54" s="9" t="s">
         <v>1050</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="114" t="s">
+      <c r="F54" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G54" s="114"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35" t="s">
         <v>1052</v>
       </c>
-      <c r="J54" s="102"/>
+      <c r="J54" s="97"/>
       <c r="K54" s="1" t="s">
         <v>1053</v>
       </c>
@@ -13163,7 +13188,7 @@
       <c r="R54" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="S54" s="43" t="s">
+      <c r="S54" s="40" t="s">
         <v>1060</v>
       </c>
       <c r="T54" s="35" t="s">
@@ -13232,14 +13257,14 @@
       <c r="AS54" s="1"/>
       <c r="AT54" s="1"/>
     </row>
-    <row r="55" spans="1:46" s="83" customFormat="1" ht="263.45">
-      <c r="A55" s="118" t="s">
+    <row r="55" spans="1:46" s="79" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A55" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="113" t="s">
+      <c r="B55" s="108" t="s">
         <v>1069</v>
       </c>
-      <c r="C55" s="114" t="s">
+      <c r="C55" s="9" t="s">
         <v>1070</v>
       </c>
       <c r="D55" s="9" t="s">
@@ -13248,15 +13273,15 @@
       <c r="E55" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F55" s="114" t="s">
+      <c r="F55" s="9" t="s">
         <v>1072</v>
       </c>
-      <c r="G55" s="114"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35" t="s">
         <v>1073</v>
       </c>
-      <c r="J55" s="102" t="s">
+      <c r="J55" s="97" t="s">
         <v>1074</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -13283,10 +13308,10 @@
       <c r="R55" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="S55" s="43" t="s">
+      <c r="S55" s="40" t="s">
         <v>1081</v>
       </c>
-      <c r="T55" s="84" t="s">
+      <c r="T55" s="80" t="s">
         <v>1082</v>
       </c>
       <c r="U55" s="1" t="s">
@@ -13339,7 +13364,7 @@
       <c r="AL55" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="AM55" s="121"/>
+      <c r="AM55" s="112"/>
       <c r="AN55" s="6">
         <v>45362</v>
       </c>
@@ -13350,14 +13375,14 @@
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
     </row>
-    <row r="56" spans="1:46" s="83" customFormat="1" ht="288" customHeight="1">
-      <c r="A56" s="118" t="s">
+    <row r="56" spans="1:46" s="79" customFormat="1" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="114" t="s">
+      <c r="B56" s="9" t="s">
         <v>1091</v>
       </c>
-      <c r="C56" s="114" t="s">
+      <c r="C56" s="9" t="s">
         <v>1092</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -13366,15 +13391,15 @@
       <c r="E56" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="114" t="s">
+      <c r="F56" s="9" t="s">
         <v>1094</v>
       </c>
-      <c r="G56" s="114"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38" t="s">
+      <c r="G56" s="9"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35" t="s">
         <v>1095</v>
       </c>
-      <c r="J56" s="102"/>
+      <c r="J56" s="97"/>
       <c r="K56" s="1" t="s">
         <v>1093</v>
       </c>
@@ -13399,10 +13424,10 @@
       <c r="R56" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="S56" s="43" t="s">
+      <c r="S56" s="40" t="s">
         <v>1101</v>
       </c>
-      <c r="T56" s="38" t="s">
+      <c r="T56" s="35" t="s">
         <v>1102</v>
       </c>
       <c r="U56" s="1" t="s">
@@ -13451,7 +13476,7 @@
       <c r="AL56" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="AM56" s="121"/>
+      <c r="AM56" s="112"/>
       <c r="AN56" s="6">
         <v>45362</v>
       </c>
@@ -13462,14 +13487,14 @@
       <c r="AS56" s="1"/>
       <c r="AT56" s="1"/>
     </row>
-    <row r="57" spans="1:46" s="83" customFormat="1" ht="341.1">
-      <c r="A57" s="118" t="s">
+    <row r="57" spans="1:46" s="79" customFormat="1" ht="372" x14ac:dyDescent="0.2">
+      <c r="A57" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="113" t="s">
+      <c r="B57" s="108" t="s">
         <v>1109</v>
       </c>
-      <c r="C57" s="113" t="s">
+      <c r="C57" s="108" t="s">
         <v>1110</v>
       </c>
       <c r="D57" s="9" t="s">
@@ -13479,10 +13504,10 @@
         <v>238</v>
       </c>
       <c r="H57" s="35"/>
-      <c r="I57" s="38" t="s">
+      <c r="I57" s="35" t="s">
         <v>1112</v>
       </c>
-      <c r="J57" s="102"/>
+      <c r="J57" s="97"/>
       <c r="K57" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13507,7 +13532,7 @@
       <c r="R57" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="S57" s="43" t="s">
+      <c r="S57" s="40" t="s">
         <v>1120</v>
       </c>
       <c r="T57" s="35" t="s">
@@ -13570,8 +13595,8 @@
       <c r="AS57" s="1"/>
       <c r="AT57" s="1"/>
     </row>
-    <row r="58" spans="1:46" s="90" customFormat="1" ht="216.95">
-      <c r="A58" s="113" t="s">
+    <row r="58" spans="1:46" s="85" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A58" s="108" t="s">
         <v>113</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -13580,19 +13605,19 @@
       <c r="C58" s="9" t="s">
         <v>1130</v>
       </c>
-      <c r="D58" s="111" t="s">
+      <c r="D58" s="106" t="s">
         <v>1131</v>
       </c>
-      <c r="E58" s="111" t="s">
+      <c r="E58" s="106" t="s">
         <v>1132</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="93" t="s">
+      <c r="H58" s="88"/>
+      <c r="I58" s="88" t="s">
         <v>1133</v>
       </c>
-      <c r="J58" s="102"/>
+      <c r="J58" s="97"/>
       <c r="K58" s="1" t="s">
         <v>1134</v>
       </c>
@@ -13617,7 +13642,7 @@
       <c r="R58" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="S58" s="43" t="s">
+      <c r="S58" s="40" t="s">
         <v>1141</v>
       </c>
       <c r="T58" s="35" t="s">
@@ -13684,8 +13709,8 @@
       <c r="AS58" s="1"/>
       <c r="AT58" s="1"/>
     </row>
-    <row r="59" spans="1:46" s="90" customFormat="1" ht="186.95" customHeight="1">
-      <c r="A59" s="113" t="s">
+    <row r="59" spans="1:46" s="85" customFormat="1" ht="187" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="108" t="s">
         <v>113</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -13694,19 +13719,19 @@
       <c r="C59" s="9" t="s">
         <v>1152</v>
       </c>
-      <c r="D59" s="111" t="s">
+      <c r="D59" s="106" t="s">
         <v>1153</v>
       </c>
-      <c r="E59" s="111" t="s">
+      <c r="E59" s="106" t="s">
         <v>1132</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
-      <c r="H59" s="93"/>
-      <c r="I59" s="93" t="s">
+      <c r="H59" s="88"/>
+      <c r="I59" s="88" t="s">
         <v>1154</v>
       </c>
-      <c r="J59" s="102"/>
+      <c r="J59" s="97"/>
       <c r="K59" s="1" t="s">
         <v>1155</v>
       </c>
@@ -13731,7 +13756,7 @@
       <c r="R59" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="S59" s="43" t="s">
+      <c r="S59" s="40" t="s">
         <v>1160</v>
       </c>
       <c r="T59" s="35" t="s">
@@ -13798,8 +13823,8 @@
       <c r="AS59" s="1"/>
       <c r="AT59" s="1"/>
     </row>
-    <row r="60" spans="1:46" s="1" customFormat="1" ht="198" customHeight="1">
-      <c r="A60" s="113" t="s">
+    <row r="60" spans="1:46" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="108" t="s">
         <v>113</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -13808,19 +13833,19 @@
       <c r="C60" s="9" t="s">
         <v>1166</v>
       </c>
-      <c r="D60" s="111" t="s">
+      <c r="D60" s="106" t="s">
         <v>1167</v>
       </c>
-      <c r="E60" s="111" t="s">
+      <c r="E60" s="106" t="s">
         <v>1132</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
-      <c r="H60" s="93"/>
-      <c r="I60" s="93" t="s">
+      <c r="H60" s="88"/>
+      <c r="I60" s="88" t="s">
         <v>1168</v>
       </c>
-      <c r="J60" s="102"/>
+      <c r="J60" s="97"/>
       <c r="K60" s="1" t="s">
         <v>1169</v>
       </c>
@@ -13845,7 +13870,7 @@
       <c r="R60" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="S60" s="43" t="s">
+      <c r="S60" s="40" t="s">
         <v>1174</v>
       </c>
       <c r="T60" s="35" t="s">
@@ -13902,17 +13927,17 @@
         <v>45362</v>
       </c>
     </row>
-    <row r="61" spans="1:46" s="1" customFormat="1" ht="201.6">
-      <c r="A61" s="113" t="s">
+    <row r="61" spans="1:46" s="1" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A61" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="106" t="s">
         <v>1180</v>
       </c>
-      <c r="C61" s="111" t="s">
+      <c r="C61" s="106" t="s">
         <v>1181</v>
       </c>
-      <c r="D61" s="111" t="s">
+      <c r="D61" s="106" t="s">
         <v>1182</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -13923,10 +13948,10 @@
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="93" t="s">
+      <c r="I61" s="88" t="s">
         <v>1184</v>
       </c>
-      <c r="J61" s="102"/>
+      <c r="J61" s="97"/>
       <c r="K61" s="1" t="s">
         <v>1185</v>
       </c>
@@ -13951,7 +13976,7 @@
       <c r="R61" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="S61" s="43" t="s">
+      <c r="S61" s="40" t="s">
         <v>1191</v>
       </c>
       <c r="T61" s="35" t="s">
@@ -14014,17 +14039,17 @@
         <v>45362</v>
       </c>
     </row>
-    <row r="62" spans="1:46" s="5" customFormat="1" ht="198.75" customHeight="1">
-      <c r="A62" s="113" t="s">
+    <row r="62" spans="1:46" s="5" customFormat="1" ht="198.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="111" t="s">
+      <c r="B62" s="106" t="s">
         <v>1204</v>
       </c>
-      <c r="C62" s="111" t="s">
+      <c r="C62" s="106" t="s">
         <v>1205</v>
       </c>
-      <c r="D62" s="111" t="s">
+      <c r="D62" s="106" t="s">
         <v>1206</v>
       </c>
       <c r="E62" s="9" t="s">
@@ -14036,7 +14061,7 @@
       <c r="I62" s="35" t="s">
         <v>1207</v>
       </c>
-      <c r="J62" s="102"/>
+      <c r="J62" s="97"/>
       <c r="K62" s="1" t="s">
         <v>1208</v>
       </c>
@@ -14061,7 +14086,7 @@
       <c r="R62" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="S62" s="43" t="s">
+      <c r="S62" s="40" t="s">
         <v>1214</v>
       </c>
       <c r="T62" s="35" t="s">
@@ -14109,7 +14134,7 @@
       <c r="AJ62" s="9"/>
       <c r="AK62" s="30"/>
       <c r="AL62" s="9"/>
-      <c r="AM62" s="121"/>
+      <c r="AM62" s="112"/>
       <c r="AN62" s="6">
         <v>45362</v>
       </c>
@@ -14120,33 +14145,33 @@
       <c r="AS62" s="1"/>
       <c r="AT62" s="1"/>
     </row>
-    <row r="63" spans="1:46" s="5" customFormat="1" ht="294.60000000000002">
-      <c r="A63" s="113" t="s">
+    <row r="63" spans="1:46" s="5" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+      <c r="A63" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="111" t="s">
+      <c r="B63" s="106" t="s">
         <v>1219</v>
       </c>
-      <c r="C63" s="111" t="s">
+      <c r="C63" s="106" t="s">
         <v>1220</v>
       </c>
-      <c r="D63" s="112" t="s">
+      <c r="D63" s="107" t="s">
         <v>1221</v>
       </c>
-      <c r="E63" s="111" t="s">
+      <c r="E63" s="106" t="s">
         <v>261</v>
       </c>
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
-      <c r="H63" s="93"/>
+      <c r="H63" s="88"/>
       <c r="I63" s="35" t="s">
         <v>1222</v>
       </c>
-      <c r="J63" s="102"/>
+      <c r="J63" s="97"/>
       <c r="K63" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="L63" s="120" t="s">
+      <c r="L63" s="111" t="s">
         <v>1224</v>
       </c>
       <c r="M63" s="1" t="s">
@@ -14167,7 +14192,7 @@
       <c r="R63" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="S63" s="43" t="s">
+      <c r="S63" s="40" t="s">
         <v>1229</v>
       </c>
       <c r="T63" s="35" t="s">
@@ -14232,17 +14257,17 @@
       <c r="AS63" s="1"/>
       <c r="AT63" s="1"/>
     </row>
-    <row r="64" spans="1:46" s="5" customFormat="1" ht="232.5">
-      <c r="A64" s="113" t="s">
+    <row r="64" spans="1:46" s="5" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A64" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="111" t="s">
+      <c r="B64" s="106" t="s">
         <v>1236</v>
       </c>
-      <c r="C64" s="111" t="s">
+      <c r="C64" s="106" t="s">
         <v>1237</v>
       </c>
-      <c r="D64" s="111" t="s">
+      <c r="D64" s="106" t="s">
         <v>1238</v>
       </c>
       <c r="E64" s="9" t="s">
@@ -14254,7 +14279,7 @@
       <c r="I64" s="35" t="s">
         <v>1240</v>
       </c>
-      <c r="J64" s="102"/>
+      <c r="J64" s="97"/>
       <c r="K64" s="1" t="s">
         <v>1241</v>
       </c>
@@ -14279,7 +14304,7 @@
       <c r="R64" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="S64" s="43" t="s">
+      <c r="S64" s="40" t="s">
         <v>1247</v>
       </c>
       <c r="T64" s="35" t="s">
@@ -14340,17 +14365,17 @@
       <c r="AS64" s="1"/>
       <c r="AT64" s="1"/>
     </row>
-    <row r="65" spans="1:46" s="1" customFormat="1" ht="409.5" customHeight="1">
-      <c r="A65" s="113" t="s">
+    <row r="65" spans="1:46" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="111" t="s">
+      <c r="B65" s="106" t="s">
         <v>1252</v>
       </c>
-      <c r="C65" s="111" t="s">
+      <c r="C65" s="106" t="s">
         <v>1253</v>
       </c>
-      <c r="D65" s="111" t="s">
+      <c r="D65" s="106" t="s">
         <v>1254</v>
       </c>
       <c r="E65" s="9" t="s">
@@ -14362,7 +14387,7 @@
       <c r="I65" s="35" t="s">
         <v>1255</v>
       </c>
-      <c r="J65" s="109"/>
+      <c r="J65" s="104"/>
       <c r="K65" s="5" t="s">
         <v>1256</v>
       </c>
@@ -14387,7 +14412,7 @@
       <c r="R65" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="S65" s="43" t="s">
+      <c r="S65" s="40" t="s">
         <v>1263</v>
       </c>
       <c r="T65" s="35" t="s">
@@ -14446,29 +14471,29 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="66" spans="1:46" s="5" customFormat="1" ht="139.5">
-      <c r="A66" s="113" t="s">
+    <row r="66" spans="1:46" s="5" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A66" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="111" t="s">
+      <c r="B66" s="106" t="s">
         <v>1271</v>
       </c>
-      <c r="C66" s="111" t="s">
+      <c r="C66" s="106" t="s">
         <v>1272</v>
       </c>
-      <c r="D66" s="111" t="s">
+      <c r="D66" s="106" t="s">
         <v>1273</v>
       </c>
-      <c r="E66" s="111" t="s">
+      <c r="E66" s="106" t="s">
         <v>1274</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
-      <c r="H66" s="93"/>
+      <c r="H66" s="88"/>
       <c r="I66" s="35" t="s">
         <v>1275</v>
       </c>
-      <c r="J66" s="102"/>
+      <c r="J66" s="97"/>
       <c r="K66" s="1" t="s">
         <v>1276</v>
       </c>
@@ -14493,10 +14518,10 @@
       <c r="R66" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="S66" s="43" t="s">
+      <c r="S66" s="40" t="s">
         <v>1282</v>
       </c>
-      <c r="T66" s="38" t="s">
+      <c r="T66" s="35" t="s">
         <v>1283</v>
       </c>
       <c r="U66" s="1" t="s">
@@ -14541,7 +14566,7 @@
         <v>1286</v>
       </c>
       <c r="AL66" s="9"/>
-      <c r="AM66" s="121"/>
+      <c r="AM66" s="112"/>
       <c r="AN66" s="6">
         <v>45366</v>
       </c>
@@ -14552,13 +14577,13 @@
       <c r="AS66" s="1"/>
       <c r="AT66" s="1"/>
     </row>
-    <row r="67" spans="1:46" ht="15.6">
+    <row r="67" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="I67" s="35"/>
       <c r="J67" s="35"/>
     </row>
-    <row r="68" spans="1:46" ht="15.6"/>
-    <row r="69" spans="1:46" ht="15.6"/>
-    <row r="70" spans="1:46" ht="15.6"/>
+    <row r="68" spans="1:46" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:46" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:46" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="K1:S1"/>
@@ -14660,70 +14685,69 @@
       <selection activeCell="A5" sqref="A5:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" style="133" customWidth="1"/>
-    <col min="2" max="2" width="156.875" style="131" customWidth="1"/>
+    <col min="1" max="1" width="33" style="121" customWidth="1"/>
+    <col min="2" max="2" width="156.83203125" style="119" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="36" customFormat="1" ht="16.5">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="120" t="s">
         <v>1287</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="118" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="36" customFormat="1">
-      <c r="A2" s="132"/>
-      <c r="B2" s="130"/>
-    </row>
-    <row r="5" spans="1:2" ht="16.5">
-      <c r="A5" s="133" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="120"/>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="119" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5">
-      <c r="B6" s="131" t="s">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="119" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5">
-      <c r="B7" s="131" t="s">
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="119" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5">
-      <c r="B8" s="131" t="s">
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="119" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5">
-      <c r="B9" s="131" t="s">
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="119" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5">
-      <c r="B12" s="131" t="s">
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="119" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="32.25">
-      <c r="A15" s="133" t="s">
+    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="121" t="s">
         <v>1295</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="119" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="32.25">
-      <c r="A17" s="133" t="s">
+    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="119" t="s">
         <v>1297</v>
       </c>
     </row>
@@ -14740,19 +14764,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="43" style="12" customWidth="1"/>
     <col min="7" max="7" width="135" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="12"/>
+    <col min="8" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="18">
+    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>1298</v>
       </c>
@@ -14775,7 +14799,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="15" customFormat="1" ht="20.45">
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1305</v>
       </c>
@@ -14795,7 +14819,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="15" customFormat="1">
+    <row r="3" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>1305</v>
       </c>
@@ -14815,7 +14839,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1">
+    <row r="4" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>1312</v>
       </c>
@@ -14832,7 +14856,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="20.45">
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1312</v>
       </c>
@@ -14849,7 +14873,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="20.45">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1312</v>
       </c>
@@ -14866,7 +14890,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="20.45">
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1305</v>
       </c>
@@ -14886,7 +14910,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="16" customFormat="1">
+    <row r="8" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>1312</v>
       </c>
@@ -14903,7 +14927,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
+    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>1312</v>
       </c>
@@ -14920,7 +14944,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1">
+    <row r="10" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>1312</v>
       </c>
@@ -14937,7 +14961,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1">
+    <row r="11" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>1312</v>
       </c>
@@ -14954,7 +14978,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="18" customFormat="1">
+    <row r="12" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>1312</v>
       </c>
@@ -14974,7 +14998,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="18" customFormat="1">
+    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>1312</v>
       </c>
@@ -14991,7 +15015,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1">
+    <row r="14" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>1312</v>
       </c>
@@ -15011,7 +15035,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="18" customFormat="1">
+    <row r="15" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>1333</v>
       </c>
@@ -15022,7 +15046,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="15" customFormat="1">
+    <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>1312</v>
       </c>
@@ -15042,7 +15066,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="15" customFormat="1">
+    <row r="17" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>1312</v>
       </c>
@@ -15059,7 +15083,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="18" customFormat="1">
+    <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>1312</v>
       </c>
@@ -15076,7 +15100,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="18" customFormat="1">
+    <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>1340</v>
       </c>
@@ -15096,7 +15120,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="15" customFormat="1">
+    <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>1312</v>
       </c>
@@ -15113,7 +15137,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="15" customFormat="1">
+    <row r="21" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>1343</v>
       </c>
@@ -15136,7 +15160,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="15" customFormat="1">
+    <row r="22" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>1312</v>
       </c>
@@ -15156,7 +15180,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="18" customFormat="1">
+    <row r="23" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>1352</v>
       </c>
@@ -15170,7 +15194,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="18" customFormat="1">
+    <row r="24" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>1312</v>
       </c>
@@ -15190,7 +15214,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="15" customFormat="1">
+    <row r="25" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>1312</v>
       </c>
@@ -15207,7 +15231,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="15" customFormat="1">
+    <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>1312</v>
       </c>
@@ -15224,7 +15248,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="18" customFormat="1">
+    <row r="27" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>1312</v>
       </c>
@@ -15241,7 +15265,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="15" customFormat="1">
+    <row r="28" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>1312</v>
       </c>
@@ -15258,7 +15282,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="18" customFormat="1">
+    <row r="29" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>1312</v>
       </c>
@@ -15275,7 +15299,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="18" customFormat="1">
+    <row r="30" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>1312</v>
       </c>
@@ -15295,7 +15319,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="18" customFormat="1">
+    <row r="31" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>1312</v>
       </c>
@@ -15315,7 +15339,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="18" customFormat="1">
+    <row r="32" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>1312</v>
       </c>
@@ -15335,7 +15359,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="18" customFormat="1">
+    <row r="33" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>1312</v>
       </c>
@@ -15371,278 +15395,278 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.125" style="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
         <v>1373</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="77.45">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>1375</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="51" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
         <v>1377</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="51" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="51" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="51" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="51" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="51" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="51" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="51" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="57" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="51" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="57" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="51" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="51" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="57" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="51" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="57" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="51" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="57" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="51" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="57" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="51" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="57" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="51" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="57" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="51" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="51" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="57" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="51" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="57" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="51" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="57" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="51" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="58" t="s">
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="54" t="s">
         <v>1377</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="51" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="57" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="51" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="57" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
         <v>1394</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="51" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="59" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="55" t="s">
         <v>1396</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="51" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="60" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="56" t="s">
         <v>1398</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="51" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="61" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="57" t="s">
         <v>1400</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="51" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="56" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
         <v>1377</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="51" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="57" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="51" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="57" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="51" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="57" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="51" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="57" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="53" t="s">
         <v>1377</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="51" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="B34" s="63" t="s">
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="59" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -15657,121 +15681,121 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="132.5" customWidth="1"/>
-    <col min="2" max="2" width="62.375" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>1408</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="94" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="116" t="s">
         <v>1410</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="125" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="116" t="s">
         <v>1412</v>
       </c>
       <c r="B3" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" s="125" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="116" t="s">
         <v>1414</v>
       </c>
       <c r="B4" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="125" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="116" t="s">
         <v>1416</v>
       </c>
       <c r="B5" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="125" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="116" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="125" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="116" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="125" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="116" t="s">
         <v>1420</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="116" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="125" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="116" t="s">
         <v>1422</v>
       </c>
-      <c r="B9" s="125"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="125" t="s">
+      <c r="B9" s="116"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="116" t="s">
         <v>1423</v>
       </c>
-      <c r="B10" s="125"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75">
-      <c r="A11" s="125" t="s">
+      <c r="B10" s="116"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="116" t="s">
         <v>1424</v>
       </c>
       <c r="B11" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="125" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="116" t="s">
         <v>1426</v>
       </c>
       <c r="B12" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="125" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="116" t="s">
         <v>1428</v>
       </c>
       <c r="B13" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="125" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="116" t="s">
         <v>1430</v>
       </c>
       <c r="B14" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="125" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="116" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="125" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="116" t="s">
         <v>1433</v>
       </c>
     </row>
@@ -15786,36 +15810,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.75" customWidth="1"/>
-    <col min="2" max="2" width="55.125" customWidth="1"/>
+    <col min="1" max="1" width="69.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>1434</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="94" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="128" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="117" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>473</v>
       </c>
@@ -15826,17 +15850,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2de882ca-9509-47c1-8c64-fb583c88719d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="687fcabb-7907-411d-9d68-e27ef4ca3abf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -15845,7 +15858,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BAD4B8DE911AC343BFDC9276B63D4692" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="da715119a34c6f135312c33e82e796ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2de882ca-9509-47c1-8c64-fb583c88719d" xmlns:ns3="687fcabb-7907-411d-9d68-e27ef4ca3abf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="302baa9287f9ef7b911acf2a14e6f5ac" ns2:_="" ns3:_="">
     <xsd:import namespace="2de882ca-9509-47c1-8c64-fb583c88719d"/>
@@ -16074,16 +16087,59 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2de882ca-9509-47c1-8c64-fb583c88719d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="687fcabb-7907-411d-9d68-e27ef4ca3abf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A191B0-C3D7-488C-ACAC-B7E55D563B0F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47660805-3115-4497-A410-CE66A09F4931}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47660805-3115-4497-A410-CE66A09F4931}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F99A077B-1777-4449-B703-6FEE4C1C2ECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2de882ca-9509-47c1-8c64-fb583c88719d"/>
+    <ds:schemaRef ds:uri="687fcabb-7907-411d-9d68-e27ef4ca3abf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F99A077B-1777-4449-B703-6FEE4C1C2ECC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A191B0-C3D7-488C-ACAC-B7E55D563B0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2de882ca-9509-47c1-8c64-fb583c88719d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="687fcabb-7907-411d-9d68-e27ef4ca3abf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
